--- a/DailyExpenditure.xlsx
+++ b/DailyExpenditure.xlsx
@@ -6906,7 +6906,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
   <si>
     <t>DATE</t>
   </si>
@@ -6941,16 +6941,13 @@
     <t>IN HAND</t>
   </si>
   <si>
-    <t>RETURN </t>
+    <t>RETURN</t>
   </si>
   <si>
-    <t>EXPECTED </t>
+    <t>EXPECTED</t>
   </si>
   <si>
     <t>SALARY</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>EXPECTED OTHER EXP</t>
@@ -7016,7 +7013,7 @@
     <t>Thodupuzha mrg    exp 300</t>
   </si>
   <si>
-    <t>To hm </t>
+    <t>To hm</t>
   </si>
   <si>
     <t>Trigil</t>
@@ -7028,7 +7025,7 @@
     <t>To-Sadam</t>
   </si>
   <si>
-    <t>To-Trigil </t>
+    <t>To-Trigil</t>
   </si>
   <si>
     <t>BIKE-PETROL</t>
@@ -7055,7 +7052,7 @@
     <t>Total To JP 11000</t>
   </si>
   <si>
-    <t>inhand </t>
+    <t>inhand</t>
   </si>
   <si>
     <t>debt</t>
@@ -7377,7 +7374,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7415,10 +7412,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7510,10 +7503,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7526,13 +7515,13 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Note" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Input" xfId="25" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Check Cell" xfId="26" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Note" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Good" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Calculation" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Input" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Check Cell" xfId="26" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -7605,7 +7594,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7699,9 +7688,12 @@
       <c r="D3" s="0" t="n">
         <v>218</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>177</v>
+      </c>
       <c r="I3" s="2" t="n">
         <f aca="false">SUM(B3,C3,D3,E3,F3,G3)</f>
-        <v>913</v>
+        <v>1090</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>11</v>
@@ -7714,9 +7706,15 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>340</v>
+      </c>
       <c r="I4" s="2" t="n">
         <f aca="false">SUM(B4,C4,D4,E4,F4,G4)</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>12</v>
@@ -7761,9 +7759,7 @@
         <f aca="false">SUM(B7,C7,D7,E7,F7,G7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
@@ -7859,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7"/>
     </row>
@@ -7872,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="9" t="n">
         <v>15000</v>
@@ -7887,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -7900,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -7939,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>2000</v>
@@ -7954,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="9" t="n">
         <v>1000</v>
@@ -7969,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -7982,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -8045,8 +8041,6 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="D31" s="10"/>
       <c r="I31" s="2" t="n">
         <f aca="false">SUM(B31,C31,D31,E31,F31,G31)</f>
         <v>0</v>
@@ -8066,104 +8060,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>160</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>695</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
-        <v>567</v>
-      </c>
-      <c r="E34" s="12" t="n">
+        <v>597</v>
+      </c>
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>379</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
-        <v>15000</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+        <v>15517</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>16801</v>
+        <v>17348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1500</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>4300</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <f aca="false">SUM(L17:L30)</f>
         <v>22000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>30100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>1340</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>3605</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
-        <v>433</v>
-      </c>
-      <c r="E36" s="18" t="n">
+        <v>403</v>
+      </c>
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>621</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>300</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
-        <v>7000</v>
-      </c>
-      <c r="I36" s="18" t="n">
+        <v>6483</v>
+      </c>
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
-        <v>13299</v>
+        <v>12752</v>
       </c>
     </row>
   </sheetData>
@@ -8221,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8238,8 +8228,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>57</v>
+      <c r="M1" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8263,7 +8253,7 @@
         <f aca="false">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="27" t="n">
+      <c r="M2" s="26" t="n">
         <v>1152</v>
       </c>
     </row>
@@ -8290,7 +8280,7 @@
         <f aca="false">SUM(B3,C3,D3,E3,F3,G3,H3)</f>
         <v>1994</v>
       </c>
-      <c r="M3" s="27" t="n">
+      <c r="M3" s="26" t="n">
         <v>1994</v>
       </c>
     </row>
@@ -8313,7 +8303,7 @@
         <f aca="false">SUM(B4,C4,D4,E4,F4,G4,H4)</f>
         <v>154</v>
       </c>
-      <c r="M4" s="27"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -8383,7 +8373,7 @@
         <v>60</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,7 +8415,7 @@
         <f aca="false">SUM(B9,C9,D9,E9,F9,G9,H9)</f>
         <v>928</v>
       </c>
-      <c r="N9" s="31" t="n">
+      <c r="N9" s="30" t="n">
         <v>463</v>
       </c>
     </row>
@@ -8450,7 +8440,7 @@
         <f aca="false">SUM(B10,C10,D10,E10,F10,G10,H10)</f>
         <v>548</v>
       </c>
-      <c r="N10" s="31" t="n">
+      <c r="N10" s="30" t="n">
         <v>165</v>
       </c>
     </row>
@@ -8473,7 +8463,7 @@
         <f aca="false">SUM(B11,C11,D11,E11,F11,G11,H11)</f>
         <v>936</v>
       </c>
-      <c r="N11" s="31" t="n">
+      <c r="N11" s="30" t="n">
         <v>780</v>
       </c>
     </row>
@@ -8496,7 +8486,7 @@
         <f aca="false">SUM(B12,C12,D12,E12,F12,G12,H12)</f>
         <v>67</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -8517,7 +8507,7 @@
         <f aca="false">SUM(B13,C13,D13,E13,F13,G13,H13)</f>
         <v>1234</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -8536,7 +8526,7 @@
         <f aca="false">SUM(B14,C14,D14,E14,F14,G14,H14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -8559,7 +8549,7 @@
         <f aca="false">SUM(B15,C15,D15,E15,F15,G15,H15)</f>
         <v>1254</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -8580,7 +8570,7 @@
         <f aca="false">SUM(B16,C16,D16,E16,F16,G16,H16)</f>
         <v>99</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -8601,7 +8591,7 @@
         <f aca="false">SUM(B17,C17,D17,E17,F17,G17,H17)</f>
         <v>223</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -8620,7 +8610,7 @@
         <f aca="false">SUM(B18,C18,D18,E18,F18,G18,H18)</f>
         <v>145</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -8641,7 +8631,7 @@
         <f aca="false">SUM(B19,C19,D19,E19,F19,G19,H19)</f>
         <v>611</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -8662,7 +8652,7 @@
         <f aca="false">SUM(B20,C20,D20,E20,F20,G20,H20)</f>
         <v>250</v>
       </c>
-      <c r="N20" s="31"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -8683,7 +8673,7 @@
         <f aca="false">SUM(B21,C21,D21,E21,F21,G21,H21)</f>
         <v>282</v>
       </c>
-      <c r="N21" s="31"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -8702,7 +8692,7 @@
         <f aca="false">SUM(B22,C22,D22,E22,F22,G22,H22)</f>
         <v>150</v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -8721,7 +8711,7 @@
         <f aca="false">SUM(B23,C23,D23,E23,F23,G23,H23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -8744,7 +8734,7 @@
         <f aca="false">SUM(B24,C24,D24,E24,F24,G24,H24)</f>
         <v>468</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -8765,7 +8755,7 @@
         <f aca="false">SUM(B25,C25,D25,E25,F25,G25,H25)</f>
         <v>128</v>
       </c>
-      <c r="N25" s="31"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -8784,7 +8774,7 @@
         <f aca="false">SUM(B26,C26,D26,E26,F26,G26,H26)</f>
         <v>120</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -8807,7 +8797,7 @@
         <f aca="false">SUM(B27,C27,D27,E27,F27,G27,H27)</f>
         <v>407</v>
       </c>
-      <c r="N27" s="31"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -8826,7 +8816,7 @@
         <f aca="false">SUM(B28,C28,D28,E28,F28,G28,H28)</f>
         <v>54</v>
       </c>
-      <c r="N28" s="31"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -8845,7 +8835,7 @@
         <f aca="false">SUM(B29,C29,D29,E29,F29,G29,H29)</f>
         <v>48</v>
       </c>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -8868,16 +8858,16 @@
         <f aca="false">SUM(B30,C30,D30,E30,F30,G30,H30)</f>
         <v>204</v>
       </c>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F31" s="0"/>
@@ -8887,7 +8877,7 @@
         <f aca="false">SUM(B31,C31,D31,E31,F31,G31,H31)</f>
         <v>25</v>
       </c>
-      <c r="N31" s="31"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -8904,124 +8894,124 @@
         <f aca="false">SUM(B32,C32,D32,E32,F32,G32,H32)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="31"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>2458</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>3341</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12" t="n">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>4770</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15236</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>3667</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6467</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-1458</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>200</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-2641</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-950</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>350</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-4270</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-8769</v>
       </c>
-      <c r="N36" s="27" t="n">
+      <c r="N36" s="26" t="n">
         <f aca="false">SUM(N9:N35)</f>
         <v>1408</v>
       </c>
@@ -9071,10 +9061,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -9649,12 +9639,12 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>86</v>
       </c>
       <c r="F31" s="0"/>
@@ -9686,117 +9676,117 @@
         <f aca="false">SUM(B32,C32,D32,E32,F32,H32)</f>
         <v>106</v>
       </c>
-      <c r="N32" s="32" t="s">
-        <v>59</v>
+      <c r="N32" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1451</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>3663</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>10</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1781</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>17</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G33)</f>
         <v>729</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>5568</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,H34)</f>
         <v>12490</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16" t="n">
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,H35)</f>
         <v>3150</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-451</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-2963</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>190</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-1081</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>33</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18" t="n">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-5068</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,H36)</f>
         <v>-9340</v>
       </c>
@@ -9846,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -10410,10 +10400,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="I31" s="2" t="n">
@@ -10438,104 +10428,104 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1156</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>3663</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>350</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>2215</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>305</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>7746.14</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15435.14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>3663</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>2585</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>7998</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-156</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>-150</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-1715</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-255</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-5161.14</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-7437.14</v>
       </c>
@@ -10585,10 +10575,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -10818,9 +10808,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="I14" s="2" t="n">
@@ -11108,10 +11096,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="n">
         <v>105</v>
@@ -11142,104 +11130,104 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1732</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>1338</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>5305</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>9375</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>1500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>4450</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-300</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>200</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-732</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-1288</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-3805</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-4925</v>
       </c>
@@ -11291,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -11834,10 +11822,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F31" s="0"/>
@@ -11864,71 +11852,71 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>794</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1500</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>514</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1297</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>762</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4867</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>750</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3800</v>
       </c>
@@ -11937,34 +11925,34 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>206</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-500</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>236</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,1000)</f>
         <v>-297</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>50</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-262</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-567</v>
       </c>
@@ -12018,10 +12006,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -12032,7 +12020,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12058,7 +12046,7 @@
       <c r="G2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="13" t="n">
         <f aca="false">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>652</v>
       </c>
@@ -12085,7 +12073,7 @@
       <c r="G3" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="13" t="n">
         <f aca="false">SUM(B3,C3,D3,E3,F3,G3)</f>
         <v>110</v>
       </c>
@@ -12112,7 +12100,7 @@
       <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="13" t="n">
         <f aca="false">SUM(B4,C4,D4,E4,F4,G4)</f>
         <v>74</v>
       </c>
@@ -12139,7 +12127,7 @@
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="13" t="n">
         <f aca="false">SUM(B5,C5,D5,E5,F5,G5)</f>
         <v>20</v>
       </c>
@@ -12166,7 +12154,7 @@
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="13" t="n">
         <f aca="false">SUM(B6,C6,D6,E6,F6,G6)</f>
         <v>48</v>
       </c>
@@ -12193,12 +12181,12 @@
       <c r="G7" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="13" t="n">
         <f aca="false">SUM(B7,C7,D7,E7,F7,G7)</f>
         <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12223,7 +12211,7 @@
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="13" t="n">
         <f aca="false">SUM(B8,C8,D8,E8,F8,G8)</f>
         <v>69</v>
       </c>
@@ -12253,7 +12241,7 @@
       <c r="G9" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="13" t="n">
         <f aca="false">SUM(B9,C9,D9,E9,F9,G9)</f>
         <v>712</v>
       </c>
@@ -12283,7 +12271,7 @@
       <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="13" t="n">
         <f aca="false">SUM(B10,C10,D10,E10,F10,G10)</f>
         <v>70</v>
       </c>
@@ -12310,7 +12298,7 @@
       <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="13" t="n">
         <f aca="false">SUM(B11,C11,D11,E11,F11,G11)</f>
         <v>69</v>
       </c>
@@ -12337,7 +12325,7 @@
       <c r="G12" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="13" t="n">
         <f aca="false">SUM(B12,C12,D12,E12,F12,G12)</f>
         <v>150</v>
       </c>
@@ -12367,7 +12355,7 @@
       <c r="G13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="13" t="n">
         <f aca="false">SUM(B13,C13,D13,E13,F13,G13)</f>
         <v>0</v>
       </c>
@@ -12397,7 +12385,7 @@
       <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I14" s="13" t="n">
         <f aca="false">SUM(B14,C14,D14,E14,F14,G14)</f>
         <v>78</v>
       </c>
@@ -12427,7 +12415,7 @@
       <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="13" t="n">
         <f aca="false">SUM(B15,C15,D15,E15,F15,G15)</f>
         <v>526</v>
       </c>
@@ -12457,7 +12445,7 @@
       <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="14" t="n">
+      <c r="I16" s="13" t="n">
         <f aca="false">SUM(B16,C16,D16,E16,F16,G16)</f>
         <v>108</v>
       </c>
@@ -12484,7 +12472,7 @@
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="14" t="n">
+      <c r="I17" s="13" t="n">
         <f aca="false">SUM(B17,C17,D17,E17,F17,G17)</f>
         <v>61</v>
       </c>
@@ -12511,7 +12499,7 @@
       <c r="G18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="14" t="n">
+      <c r="I18" s="13" t="n">
         <f aca="false">SUM(B18,C18,D18,E18,F18,G18)</f>
         <v>167</v>
       </c>
@@ -12538,7 +12526,7 @@
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="14" t="n">
+      <c r="I19" s="13" t="n">
         <f aca="false">SUM(B19,C19,D19,E19,F19,G19)</f>
         <v>40</v>
       </c>
@@ -12565,7 +12553,7 @@
       <c r="G20" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="I20" s="14" t="n">
+      <c r="I20" s="13" t="n">
         <f aca="false">SUM(B20,C20,D20,E20,F20,G20)</f>
         <v>135</v>
       </c>
@@ -12592,7 +12580,7 @@
       <c r="G21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="13" t="n">
         <f aca="false">SUM(B21,C21,D21,E21,F21,G21)</f>
         <v>173</v>
       </c>
@@ -12619,7 +12607,7 @@
       <c r="G22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="13" t="n">
         <f aca="false">SUM(B22,C22,D22,E22,F22,G22)</f>
         <v>116</v>
       </c>
@@ -12646,7 +12634,7 @@
       <c r="G23" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="13" t="n">
         <f aca="false">SUM(B23,C23,D23,E23,F23,G23)</f>
         <v>505</v>
       </c>
@@ -12673,7 +12661,7 @@
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="13" t="n">
         <f aca="false">SUM(B24,C24,D24,E24,F24,G24)</f>
         <v>35</v>
       </c>
@@ -12700,7 +12688,7 @@
       <c r="G25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="13" t="n">
         <f aca="false">SUM(B25,C25,D25,E25,F25,G25)</f>
         <v>70</v>
       </c>
@@ -12727,7 +12715,7 @@
       <c r="G26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="13" t="n">
         <f aca="false">SUM(B26,C26,D26,E26,F26,G26)</f>
         <v>20</v>
       </c>
@@ -12754,7 +12742,7 @@
       <c r="G27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="14" t="n">
+      <c r="I27" s="13" t="n">
         <f aca="false">SUM(B27,C27,D27,E27,F27,G27)</f>
         <v>60</v>
       </c>
@@ -12781,7 +12769,7 @@
       <c r="G28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="14" t="n">
+      <c r="I28" s="13" t="n">
         <f aca="false">SUM(B28,C28,D28,E28,F28,G28)</f>
         <v>63</v>
       </c>
@@ -12808,7 +12796,7 @@
       <c r="G29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="14" t="n">
+      <c r="I29" s="13" t="n">
         <f aca="false">SUM(B29,C29,D29,E29,F29,G29)</f>
         <v>20</v>
       </c>
@@ -12835,7 +12823,7 @@
       <c r="G30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="14" t="n">
+      <c r="I30" s="13" t="n">
         <f aca="false">SUM(B30,C30,D30,E30,F30,G30)</f>
         <v>171</v>
       </c>
@@ -12844,7 +12832,7 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="0" t="n">
         <v>78</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -12853,7 +12841,7 @@
       <c r="D31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>28</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -12862,7 +12850,7 @@
       <c r="G31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="14" t="n">
+      <c r="I31" s="13" t="n">
         <f aca="false">SUM(B31,C31,D31,E31,F31,G31)</f>
         <v>106</v>
       </c>
@@ -12892,51 +12880,51 @@
       <c r="G32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="14" t="n">
+      <c r="I32" s="13" t="n">
         <f aca="false">SUM(B32,C32,D32,E32,F32,G32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1365</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>859</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>10</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>1275</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4509</v>
       </c>
@@ -12946,34 +12934,34 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="18" t="n">
+      <c r="A35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17" t="n">
         <f aca="false">SUM(-B34,1500)</f>
         <v>135</v>
       </c>
-      <c r="C35" s="18" t="n">
+      <c r="C35" s="17" t="n">
         <f aca="false">SUM(-C34,1000)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="18" t="n">
+      <c r="D35" s="17" t="n">
         <f aca="false">SUM(-D34,200)</f>
         <v>200</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E35" s="17" t="n">
         <f aca="false">SUM(-E34,500)</f>
         <v>-359</v>
       </c>
-      <c r="F35" s="18" t="n">
+      <c r="F35" s="17" t="n">
         <f aca="false">SUM(-F34,100)</f>
         <v>90</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="17" t="n">
         <f aca="false">SUM(-G34,1400)</f>
         <v>125</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="17" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>191</v>
       </c>
@@ -13019,16 +13007,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -13496,287 +13484,287 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="n">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="33" t="n">
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="n">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33" t="n">
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>744</v>
       </c>
-      <c r="E23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="33" t="n">
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G23" s="33" t="n">
+      <c r="G23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="33" t="n">
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="n">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="33" t="n">
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="33" t="n">
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="n">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="33" t="n">
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="33" t="n">
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="n">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="n">
+      <c r="B27" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="33" t="n">
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="n">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="33" t="n">
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F28" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="33" t="n">
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="n">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="33" t="n">
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="F29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33" t="n">
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>227</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="n">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="33" t="n">
+      <c r="B30" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="33" t="n">
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="n">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="n">
+      <c r="B31" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="33" t="n">
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="33" t="n">
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="n">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="33" t="n">
+      <c r="B32" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C32" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="33" t="n">
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F32" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="33" t="n">
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="33" s="34" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="21" t="n">
+    <row r="33" s="32" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="20" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1905</v>
       </c>
-      <c r="C33" s="21" t="n">
+      <c r="C33" s="20" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1300</v>
       </c>
-      <c r="D33" s="21" t="n">
+      <c r="D33" s="20" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>904</v>
       </c>
-      <c r="E33" s="21" t="n">
+      <c r="E33" s="20" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1047</v>
       </c>
-      <c r="F33" s="21" t="n">
+      <c r="F33" s="20" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>16</v>
       </c>
-      <c r="G33" s="21" t="n">
+      <c r="G33" s="20" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>1282</v>
       </c>
-      <c r="I33" s="34" t="n">
+      <c r="I33" s="32" t="n">
         <f aca="false">SUM(B33,C33,D33,E33,F33,G33)</f>
         <v>6454</v>
       </c>
@@ -14287,9 +14275,9 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -14315,104 +14303,104 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <f aca="false">SUM(B2:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <f aca="false">SUM(C2:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <f aca="false">SUM(D2:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <f aca="false">SUM(E2:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <f aca="false">SUM(F2:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <f aca="false">SUM(G2:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
+        <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="12" t="n">
-        <f aca="false">SUM(B2:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="12" t="n">
-        <f aca="false">SUM(C2:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="12" t="n">
-        <f aca="false">SUM(D2:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12" t="n">
-        <f aca="false">SUM(E2:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="12" t="n">
-        <f aca="false">SUM(F2:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
-        <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>4000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>700</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>50</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>350</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>500</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>6600</v>
       </c>
@@ -14516,17 +14504,17 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="19"/>
+      <c r="U2" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="U2" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14556,18 +14544,18 @@
         <v>160</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="U3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14595,16 +14583,16 @@
         <v>4000</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
       <c r="U4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14630,16 +14618,16 @@
         <v>15800</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="U5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14668,13 +14656,13 @@
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18" t="n">
+      <c r="O6" s="18"/>
+      <c r="P6" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
       <c r="U6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14695,19 +14683,17 @@
         <f aca="false">SUM(B7,C7,D7,E7,F7,G7)</f>
         <v>662</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18" t="n">
+      <c r="O7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="S7" s="18"/>
+      <c r="S7" s="17"/>
       <c r="U7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14740,11 +14726,11 @@
         <f aca="false">SUM(N2:N7)</f>
         <v>12000</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="U8" s="9" t="n">
         <v>270</v>
       </c>
@@ -14769,10 +14755,10 @@
         <f aca="false">SUM(B9,C9,D9,E9,F9,G9)</f>
         <v>235</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="U9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14793,10 +14779,10 @@
         <f aca="false">SUM(B10,C10,D10,E10,F10,G10)</f>
         <v>595</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="U10" s="9" t="n">
         <v>274</v>
       </c>
@@ -14817,10 +14803,10 @@
         <f aca="false">SUM(B11,C11,D11,E11,F11,G11)</f>
         <v>344</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="U11" s="9" t="n">
         <v>344</v>
       </c>
@@ -14847,10 +14833,10 @@
         <f aca="false">SUM(B12,C12,D12,E12,F12,G12)</f>
         <v>2015</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="U12" s="9" t="n">
         <v>1423</v>
       </c>
@@ -14871,10 +14857,10 @@
         <f aca="false">SUM(B13,C13,D13,E13,F13,G13)</f>
         <v>110</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="U13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14897,10 +14883,10 @@
         <f aca="false">SUM(B14,C14,D14,E14,F14,G14)</f>
         <v>836</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="U14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,10 +14905,10 @@
         <f aca="false">SUM(B15,C15,D15,E15,F15,G15)</f>
         <v>125</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="U15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14948,15 +14934,15 @@
         <v>959</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="19"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="18"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="U16" s="9" t="n">
         <v>438</v>
       </c>
@@ -14982,17 +14968,17 @@
         <v>4209</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="19"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="18"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
       <c r="U17" s="9" t="n">
         <v>290</v>
       </c>
@@ -15014,19 +15000,19 @@
         <v>1294</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>700</v>
       </c>
-      <c r="M18" s="22" t="n">
+      <c r="M18" s="21" t="n">
         <v>600</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
       <c r="U18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,19 +15034,19 @@
         <v>767</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="M19" s="22" t="n">
+      <c r="M19" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
       <c r="U19" s="9" t="n">
         <v>637</v>
       </c>
@@ -15087,12 +15073,12 @@
       <c r="L20" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="19"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="18"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
       <c r="U20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15117,12 +15103,12 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="19"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="18"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="U21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15142,17 +15128,17 @@
         <v>230</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="18"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
       <c r="U22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15172,17 +15158,17 @@
         <v>40</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="19"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="18"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
       <c r="U23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,19 +15188,19 @@
         <v>42</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L24" s="9" t="n">
         <v>700</v>
       </c>
-      <c r="M24" s="22" t="n">
+      <c r="M24" s="21" t="n">
         <v>732</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
       <c r="U24" s="9" t="n">
         <v>42</v>
       </c>
@@ -15236,19 +15222,19 @@
         <v>300</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="M25" s="22" t="n">
+      <c r="M25" s="21" t="n">
         <v>1423</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
       <c r="U25" s="9" t="n">
         <v>300</v>
       </c>
@@ -15271,12 +15257,12 @@
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="19"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="18"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
       <c r="U26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15299,12 +15285,12 @@
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="18"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
       <c r="U27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15325,12 +15311,12 @@
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="19"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="18"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
       <c r="U28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15349,12 +15335,12 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="19"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="18"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
       <c r="U29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15373,21 +15359,21 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="19"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="18"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
       <c r="U30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -15400,15 +15386,15 @@
         <f aca="false">SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="M31" s="22" t="n">
+      <c r="M31" s="21" t="n">
         <f aca="false">SUM(M17:M30)</f>
         <v>2805</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
       <c r="U31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15425,127 +15411,127 @@
         <f aca="false">SUM(B32,C32,D32,E32,F32,G32)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
       <c r="U32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="24" t="n">
+      <c r="A34" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="23" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>3208</v>
       </c>
-      <c r="C34" s="24" t="n">
+      <c r="C34" s="23" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>3363</v>
       </c>
-      <c r="D34" s="24" t="n">
+      <c r="D34" s="23" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>1477</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="23" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>506</v>
       </c>
-      <c r="F34" s="24" t="n">
+      <c r="F34" s="23" t="n">
         <f aca="false">SUM(F2:F33)</f>
         <v>524</v>
       </c>
-      <c r="G34" s="24" t="n">
+      <c r="G34" s="23" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>8829</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26" t="n">
+      <c r="H34" s="24"/>
+      <c r="I34" s="25" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17907</v>
       </c>
-      <c r="P34" s="27" t="n">
+      <c r="P34" s="26" t="n">
         <f aca="false">SUM(P3:P33)</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27" t="n">
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26" t="n">
         <f aca="false">SUM(R3:R32)</f>
         <v>15</v>
       </c>
-      <c r="S34" s="27"/>
+      <c r="S34" s="26"/>
       <c r="U34" s="0" t="n">
         <f aca="false">SUM(U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32)</f>
         <v>4018</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="29" t="n">
+      <c r="A35" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="28" t="n">
         <v>3000</v>
       </c>
-      <c r="C35" s="29" t="n">
+      <c r="C35" s="28" t="n">
         <v>3800</v>
       </c>
-      <c r="D35" s="29" t="n">
+      <c r="D35" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="E35" s="29" t="n">
+      <c r="E35" s="28" t="n">
         <v>1050</v>
       </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="28" t="n">
         <v>400</v>
       </c>
-      <c r="G35" s="29" t="n">
+      <c r="G35" s="28" t="n">
         <f aca="false">SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26" t="n">
+      <c r="H35" s="24"/>
+      <c r="I35" s="25" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>21050</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-208</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>437</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>23</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>544</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-124</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>2471</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>3143</v>
       </c>
@@ -15671,9 +15657,6 @@
         <f aca="false">SUM(B4,C4,D4,E4,F4,G4)</f>
         <v>90</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -15814,7 +15797,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>1000</v>
@@ -15841,7 +15824,7 @@
         <v>645</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>500</v>
@@ -15866,7 +15849,7 @@
         <v>122</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>300</v>
@@ -15889,7 +15872,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>6000</v>
@@ -16038,17 +16021,17 @@
         <f aca="false">SUM(B22,C22,D22,E22,F22,G22)</f>
         <v>25</v>
       </c>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="Q22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="R22" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16067,8 +16050,8 @@
         <f aca="false">SUM(B23,C23,D23,E23,F23,G23)</f>
         <v>20</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -16086,10 +16069,10 @@
         <f aca="false">SUM(B24,C24,D24,E24,F24,G24)</f>
         <v>82</v>
       </c>
-      <c r="O24" s="30" t="n">
+      <c r="O24" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="P24" s="30" t="n">
+      <c r="P24" s="29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16109,10 +16092,10 @@
         <f aca="false">SUM(B25,C25,D25,E25,F25,G25)</f>
         <v>125</v>
       </c>
-      <c r="O25" s="30" t="n">
+      <c r="O25" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="P25" s="30" t="n">
+      <c r="P25" s="29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16134,8 +16117,8 @@
         <f aca="false">SUM(B26,C26,D26,E26,F26,G26)</f>
         <v>205</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -16157,8 +16140,8 @@
         <f aca="false">SUM(B27,C27,D27,E27,F27,G27)</f>
         <v>660</v>
       </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -16178,8 +16161,8 @@
         <f aca="false">SUM(B28,C28,D28,E28,F28,G28)</f>
         <v>90</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -16197,10 +16180,10 @@
         <f aca="false">SUM(B29,C29,D29,E29,F29,G29)</f>
         <v>65</v>
       </c>
-      <c r="O29" s="30" t="n">
+      <c r="O29" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="P29" s="30" t="n">
+      <c r="P29" s="29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16222,8 +16205,8 @@
         <f aca="false">SUM(B30,C30,D30,E30,F30,G30)</f>
         <v>385</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30" t="n">
+      <c r="O30" s="29"/>
+      <c r="P30" s="29" t="n">
         <v>110</v>
       </c>
       <c r="Q30" s="0" t="n">
@@ -16234,9 +16217,9 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="0" t="n">
         <v>60</v>
       </c>
       <c r="E31" s="0"/>
@@ -16246,8 +16229,8 @@
         <f aca="false">SUM(B31,C31,D31,E31,F31,G31)</f>
         <v>60</v>
       </c>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30" t="n">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29" t="n">
         <v>10</v>
       </c>
       <c r="R31" s="0" t="n">
@@ -16268,58 +16251,58 @@
         <f aca="false">SUM(B32,C32,D32,E32,F32,G32)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>848</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>4008</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>1919</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>790</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>7700</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15265</v>
       </c>
-      <c r="O34" s="30" t="n">
+      <c r="O34" s="29" t="n">
         <f aca="false">SUM(O24:O33)</f>
         <v>40</v>
       </c>
-      <c r="P34" s="30" t="n">
+      <c r="P34" s="29" t="n">
         <f aca="false">SUM(P23:P33)</f>
         <v>150</v>
       </c>
@@ -16333,69 +16316,69 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1500</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>3800</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>1050</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>8300</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>16000</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>652</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-208</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>-919</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>260</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>350</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>600</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>735</v>
       </c>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17002,9 +16985,9 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E31" s="0"/>
@@ -17034,104 +17017,104 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1653</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>1978</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>162</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>23360</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>30820</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>4000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-653</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>333</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>-1278</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-112</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>350</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-22860</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-24220</v>
       </c>
@@ -17781,11 +17764,11 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="0" t="n">
         <v>374</v>
       </c>
       <c r="C31" s="0"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -17811,104 +17794,104 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>2865</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>6289</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>2319</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>679</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F33)</f>
         <v>480</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>4425</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="n">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17057</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="n">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3600</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-1865</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-5289</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>-1619</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-629</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-130</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-3925</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-13457</v>
       </c>
@@ -17960,10 +17943,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -17981,7 +17964,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18086,7 +18069,7 @@
         <v>10119</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18551,10 +18534,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>170</v>
       </c>
       <c r="F31" s="0"/>
@@ -18585,79 +18568,79 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1206</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>700</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>40</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>2009</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>161</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(A34:F34)</f>
         <v>4116</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>13383</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>21615</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
@@ -18666,38 +18649,38 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-206</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>300</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>160</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-1309</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-111</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-3766</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-12883</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-17815</v>
       </c>
@@ -18753,10 +18736,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -19158,7 +19141,7 @@
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -19310,10 +19293,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
@@ -19340,113 +19323,113 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1326</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1924</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>422</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12" t="n">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>5151</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>9823</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-326</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>200</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-1224</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-372</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>350</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-4651</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-6023</v>
       </c>
@@ -19498,10 +19481,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -19781,7 +19764,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19802,7 +19785,7 @@
         <v>255</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19987,7 +19970,7 @@
         <v>2944</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20086,10 +20069,10 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F31" s="0"/>
@@ -20120,116 +20103,116 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1269</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1691</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(A34:F34)</f>
         <v>4960</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>5679</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15599</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>350</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-269</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>200</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-991</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-950</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>-4610</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-5179</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-11799</v>
       </c>
@@ -20284,7 +20267,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -20324,10 +20307,10 @@
         <v>557</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20358,7 +20341,7 @@
         <v>3000</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20379,10 +20362,10 @@
         <v>18</v>
       </c>
       <c r="N4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20406,7 +20389,7 @@
         <v>370</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20432,7 +20415,7 @@
         <v>500</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20668,7 +20651,7 @@
         <v>200</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20770,7 +20753,7 @@
         <v>100</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20911,12 +20894,12 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="0" t="n">
         <v>300</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
@@ -20947,116 +20930,116 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="n">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B2:B32)</f>
         <v>1710</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C2:C32)</f>
         <v>7973</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="11" t="n">
         <f aca="false">SUM(E2:E32)</f>
         <v>1953</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">SUM(F2:F32)</f>
         <v>661</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">SUM(G2:G32)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="11" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>1469</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="n">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="n">
         <f aca="false">SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>13766</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="16" t="n">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>1500</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>1500</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>700</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="n">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13" t="n">
         <f aca="false">SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="n">
+      <c r="A36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17" t="n">
         <f aca="false">SUM(-B34,B35)</f>
         <v>-210</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="17" t="n">
         <f aca="false">SUM(-C34,C35)</f>
         <v>-6973</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="17" t="n">
         <f aca="false">SUM(-D34,D35)</f>
         <v>1500</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="17" t="n">
         <f aca="false">SUM(-E34,E35)</f>
         <v>-1253</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">SUM(-F34,F35)</f>
         <v>-161</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">SUM(-G34,G35)</f>
         <v>400</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">SUM(-H34,H35)</f>
         <v>-969</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-7666</v>
       </c>

--- a/DailyExpenditure.xlsx
+++ b/DailyExpenditure.xlsx
@@ -7360,15 +7360,6 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7410,6 +7401,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18807,7 +18807,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18827,38 +18827,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -18876,18 +18876,18 @@
       <c r="G2">
         <v>15000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>15888</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>30000</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5">
         <v>38000</v>
       </c>
     </row>
@@ -18904,16 +18904,16 @@
       <c r="G3">
         <v>177</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>1090</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -18925,79 +18925,85 @@
       <c r="G4">
         <v>340</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
       <c r="D5">
         <v>95</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
+      <c r="D6">
+        <v>166</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
         <v>30000</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
         <v>38000</v>
       </c>
@@ -19006,7 +19012,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19015,7 +19021,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19024,7 +19030,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19033,7 +19039,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19042,7 +19048,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19051,7 +19057,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19060,7 +19066,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19069,27 +19075,27 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>15000</v>
       </c>
     </row>
@@ -19097,40 +19103,40 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>4000</v>
       </c>
     </row>
@@ -19138,25 +19144,25 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="I21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>2000</v>
       </c>
     </row>
@@ -19164,14 +19170,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -19179,93 +19185,93 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
         <v>22000</v>
       </c>
@@ -19274,105 +19280,105 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>160</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
-        <v>695</v>
-      </c>
-      <c r="D34" s="12">
+        <v>1195</v>
+      </c>
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
-        <v>692</v>
-      </c>
-      <c r="E34" s="12">
+        <v>858</v>
+      </c>
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>579</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>15517</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>17643</v>
+        <v>18309</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4300</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>300</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <f>SUM(L17:L30)</f>
         <v>22000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>30100</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>1340</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
-        <v>3605</v>
-      </c>
-      <c r="D36" s="18">
+        <v>3105</v>
+      </c>
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="E36" s="18">
+        <v>142</v>
+      </c>
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>6483</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
-        <v>12457</v>
+        <v>11791</v>
       </c>
     </row>
   </sheetData>
@@ -19398,13 +19404,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -19413,34 +19419,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19461,11 +19467,11 @@
       <c r="H2">
         <v>1014</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="23">
         <v>1152</v>
       </c>
     </row>
@@ -19488,11 +19494,11 @@
       <c r="H3">
         <v>1010</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="23">
         <v>1994</v>
       </c>
     </row>
@@ -19511,11 +19517,11 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -19534,11 +19540,11 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <f>SUM(M2:M4)</f>
         <v>3146</v>
       </c>
@@ -19560,7 +19566,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>2999</v>
       </c>
@@ -19580,7 +19586,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -19601,7 +19607,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
@@ -19623,11 +19629,11 @@
       <c r="H9">
         <v>15</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>928</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="27">
         <v>463</v>
       </c>
     </row>
@@ -19648,11 +19654,11 @@
       <c r="H10">
         <v>260</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="27">
         <v>165</v>
       </c>
     </row>
@@ -19671,11 +19677,11 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <v>780</v>
       </c>
     </row>
@@ -19694,11 +19700,11 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -19715,11 +19721,11 @@
       <c r="H13">
         <v>1100</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -19734,11 +19740,11 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="30"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -19757,11 +19763,11 @@
       <c r="H15">
         <v>1000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -19778,11 +19784,11 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -19799,11 +19805,11 @@
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -19818,11 +19824,11 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -19839,11 +19845,11 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>611</v>
       </c>
-      <c r="N19" s="30"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -19860,11 +19866,11 @@
       <c r="H20">
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="N20" s="30"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -19881,11 +19887,11 @@
       <c r="H21">
         <v>150</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="N21" s="30"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -19900,11 +19906,11 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="N22" s="30"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -19919,11 +19925,11 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="30"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -19942,11 +19948,11 @@
       <c r="H24">
         <v>88</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -19963,11 +19969,11 @@
       </c>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="N25" s="30"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -19982,11 +19988,11 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="N26" s="30"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -20005,11 +20011,11 @@
         <v>375</v>
       </c>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="N27" s="30"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -20024,11 +20030,11 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="N28" s="30"/>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -20043,11 +20049,11 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="N29" s="30"/>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -20066,11 +20072,11 @@
       <c r="H30">
         <v>83</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="N30" s="30"/>
+      <c r="N30" s="27"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -20085,11 +20091,11 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N31" s="30"/>
+      <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -20102,11 +20108,11 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="30"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -20117,113 +20123,113 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>2458</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>3341</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>4770</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15236</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3667</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6467</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-1458</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-2641</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-950</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-4270</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-8769</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="23">
         <f>SUM(N9:N35)</f>
         <v>1408</v>
       </c>
@@ -20246,44 +20252,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20306,7 +20312,7 @@
       <c r="H2">
         <v>694</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -20321,7 +20327,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J11" si="0">SUM(B3,C3,D3,E3,F3,H3)</f>
         <v>56</v>
       </c>
@@ -20339,7 +20345,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
@@ -20357,7 +20363,7 @@
       <c r="H5">
         <v>170</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -20379,7 +20385,7 @@
       <c r="H6">
         <v>1620</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>1656</v>
       </c>
@@ -20403,7 +20409,7 @@
       <c r="H7">
         <v>12</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>2738</v>
       </c>
@@ -20425,7 +20431,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>902</v>
       </c>
@@ -20445,7 +20451,7 @@
       <c r="H9">
         <v>235</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
@@ -20465,7 +20471,7 @@
       <c r="H10">
         <v>1400</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>1468</v>
       </c>
@@ -20485,7 +20491,7 @@
       <c r="H11">
         <v>899</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
@@ -20505,7 +20511,7 @@
         <v>100</v>
       </c>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f>SUM(B12,C12,D12,E12,F12,G12,H12)</f>
         <v>175</v>
       </c>
@@ -20523,7 +20529,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" ref="J13:J32" si="1">SUM(B13,C13,D13,E13,F13,H13)</f>
         <v>30</v>
       </c>
@@ -20543,7 +20549,7 @@
       <c r="H14">
         <v>160</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
@@ -20559,7 +20565,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20575,7 +20581,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20593,7 +20599,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -20611,7 +20617,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
@@ -20629,7 +20635,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -20647,7 +20653,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -20669,7 +20675,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
@@ -20687,7 +20693,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -20705,7 +20711,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -20723,7 +20729,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -20739,7 +20745,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20757,7 +20763,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
@@ -20779,7 +20785,7 @@
       <c r="H27">
         <v>103</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
@@ -20797,7 +20803,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
@@ -20815,7 +20821,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -20835,7 +20841,7 @@
       <c r="H30">
         <v>225</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -20855,7 +20861,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -20877,11 +20883,11 @@
       <c r="H32">
         <v>50</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20896,102 +20902,102 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1451</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3663</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>10</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1781</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>17</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G33)</f>
         <v>729</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5568</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,H34)</f>
         <v>12490</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>700</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,H35)</f>
         <v>3150</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f>SUM(-B34,B35)</f>
         <v>-451</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f>SUM(-C34,C35)</f>
         <v>-2963</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f>SUM(-D34,D35)</f>
         <v>190</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f>SUM(-E34,E35)</f>
         <v>-1081</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f>SUM(-F34,F35)</f>
         <v>33</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18">
+      <c r="G36" s="15"/>
+      <c r="H36" s="15">
         <f>SUM(-H34,H35)</f>
         <v>-5068</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,H36)</f>
         <v>-9340</v>
       </c>
@@ -21014,41 +21020,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21068,7 +21074,7 @@
       <c r="G2">
         <v>250</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>325</v>
       </c>
@@ -21087,7 +21093,7 @@
       <c r="G3">
         <v>477</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
@@ -21106,7 +21112,7 @@
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -21123,7 +21129,7 @@
       <c r="G5">
         <v>1108</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>1108</v>
       </c>
@@ -21138,7 +21144,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21161,7 +21167,7 @@
       <c r="G7">
         <v>200</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>3495</v>
       </c>
@@ -21181,7 +21187,7 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -21202,7 +21208,7 @@
       <c r="G9">
         <v>346.14</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>599.14</v>
       </c>
@@ -21219,7 +21225,7 @@
       <c r="G10">
         <v>2360</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>2360</v>
       </c>
@@ -21236,7 +21242,7 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -21257,7 +21263,7 @@
       <c r="G12">
         <v>1699</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>2136</v>
       </c>
@@ -21276,7 +21282,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
@@ -21295,7 +21301,7 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
@@ -21314,7 +21320,7 @@
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -21331,7 +21337,7 @@
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -21348,7 +21354,7 @@
       </c>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
@@ -21369,7 +21375,7 @@
         <v>140</v>
       </c>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
@@ -21390,7 +21396,7 @@
       <c r="G19">
         <v>80</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
@@ -21407,7 +21413,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -21426,7 +21432,7 @@
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
@@ -21447,7 +21453,7 @@
       <c r="G22">
         <v>249</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
@@ -21464,7 +21470,7 @@
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
@@ -21483,7 +21489,7 @@
         <v>135</v>
       </c>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
@@ -21500,7 +21506,7 @@
       <c r="G25">
         <v>259</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
@@ -21517,7 +21523,7 @@
       <c r="G26">
         <v>478</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
@@ -21532,7 +21538,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21557,7 +21563,7 @@
       <c r="G28">
         <v>108</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
@@ -21574,7 +21580,7 @@
       <c r="G29">
         <v>22</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -21589,7 +21595,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21604,7 +21610,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21619,7 +21625,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21634,96 +21640,96 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>1156</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>3663</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>2215</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>7746.1399999999994</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15435.14</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3663</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>500</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>2585</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>7998</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="2">SUM(-B34,B35)</f>
         <v>-156</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>-150</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-1715</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-255</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>-5161.1399999999994</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-7437.1399999999994</v>
       </c>
@@ -21746,41 +21752,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21794,7 +21800,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>0</v>
       </c>
@@ -21811,7 +21817,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -21828,7 +21834,7 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -21847,7 +21853,7 @@
       <c r="G5">
         <v>300</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
@@ -21866,7 +21872,7 @@
       <c r="G6">
         <v>304</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>899</v>
       </c>
@@ -21883,7 +21889,7 @@
       <c r="G7">
         <v>360</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -21898,7 +21904,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21917,7 +21923,7 @@
       <c r="G9">
         <v>960</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>978</v>
       </c>
@@ -21936,7 +21942,7 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
@@ -21953,7 +21959,7 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -21970,7 +21976,7 @@
       </c>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -21987,7 +21993,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -22002,7 +22008,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22017,7 +22023,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22032,7 +22038,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22051,7 +22057,7 @@
         <v>335</v>
       </c>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>393</v>
       </c>
@@ -22070,7 +22076,7 @@
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -22087,7 +22093,7 @@
         <v>1003</v>
       </c>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
@@ -22104,7 +22110,7 @@
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -22119,7 +22125,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22138,7 +22144,7 @@
       <c r="G22">
         <v>1300</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>1310</v>
       </c>
@@ -22155,7 +22161,7 @@
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -22176,7 +22182,7 @@
       <c r="G24">
         <v>566</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>1246</v>
       </c>
@@ -22193,7 +22199,7 @@
       </c>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -22210,7 +22216,7 @@
       </c>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -22227,7 +22233,7 @@
       <c r="G27">
         <v>112</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -22244,7 +22250,7 @@
       <c r="G28">
         <v>200</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -22261,7 +22267,7 @@
       <c r="G29">
         <v>600</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -22278,7 +22284,7 @@
       <c r="G30">
         <v>328</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
@@ -22295,7 +22301,7 @@
       <c r="G31">
         <v>105</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -22314,7 +22320,7 @@
       <c r="G32">
         <v>150</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
@@ -22329,96 +22335,96 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1732</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>1338</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>5305</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>9375</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>700</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>1500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>4450</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="2">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>-300</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-732</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-1288</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>-3805</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-4925</v>
       </c>
@@ -22442,41 +22448,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22496,7 +22502,7 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>735</v>
       </c>
@@ -22516,7 +22522,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -22535,7 +22541,7 @@
       <c r="G4">
         <v>210</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>382</v>
       </c>
@@ -22554,7 +22560,7 @@
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -22571,7 +22577,7 @@
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -22590,7 +22596,7 @@
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
@@ -22609,7 +22615,7 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
@@ -22626,7 +22632,7 @@
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -22646,7 +22652,7 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -22669,7 +22675,7 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
@@ -22688,7 +22694,7 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -22707,7 +22713,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
@@ -22724,7 +22730,7 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -22741,7 +22747,7 @@
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -22762,7 +22768,7 @@
       <c r="G16">
         <v>102</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
@@ -22777,7 +22783,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22792,7 +22798,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22807,7 +22813,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22824,7 +22830,7 @@
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -22843,7 +22849,7 @@
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
@@ -22862,7 +22868,7 @@
       <c r="G22">
         <v>185</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -22877,7 +22883,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22896,7 +22902,7 @@
       <c r="G24">
         <v>200</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
@@ -22911,7 +22917,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22926,7 +22932,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22943,7 +22949,7 @@
       </c>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -22960,7 +22966,7 @@
       </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -22977,7 +22983,7 @@
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -22996,7 +23002,7 @@
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
@@ -23013,7 +23019,7 @@
       </c>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -23028,7 +23034,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23043,63 +23049,63 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>794</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1297</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>762</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4867</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>750</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>500</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3800</v>
       </c>
@@ -23108,34 +23114,34 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f>SUM(-B34,B35)</f>
         <v>206</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f>SUM(-C34,C35)</f>
         <v>-500</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f>SUM(-D34,D35)</f>
         <v>236</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f>SUM(-E34,1000)</f>
         <v>-297</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f>SUM(-F34,F35)</f>
         <v>50</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f>SUM(-G34,G35)</f>
         <v>-262</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-567</v>
       </c>
@@ -23159,13 +23165,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="4"/>
-    <col min="2" max="2" width="19.85546875" style="4"/>
-    <col min="3" max="3" width="15.42578125" style="4"/>
-    <col min="4" max="4" width="14" style="4"/>
-    <col min="5" max="5" width="15" style="4"/>
-    <col min="6" max="6" width="12.140625" style="4"/>
-    <col min="7" max="7" width="15" style="4"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1"/>
+    <col min="4" max="4" width="14" style="1"/>
+    <col min="5" max="5" width="15" style="1"/>
+    <col min="6" max="6" width="12.140625" style="1"/>
+    <col min="7" max="7" width="15" style="1"/>
     <col min="8" max="8" width="2.140625"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="10" width="8.5703125"/>
@@ -23174,28 +23180,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23221,7 +23227,7 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>652</v>
       </c>
@@ -23248,7 +23254,7 @@
       <c r="G3">
         <v>110</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -23275,7 +23281,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -23302,7 +23308,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -23329,7 +23335,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -23356,11 +23362,11 @@
       <c r="G7">
         <v>36</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -23386,7 +23392,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -23416,7 +23422,7 @@
       <c r="G9">
         <v>344</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
@@ -23446,7 +23452,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -23473,7 +23479,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -23500,7 +23506,7 @@
       <c r="G12">
         <v>150</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -23530,7 +23536,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23560,7 +23566,7 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -23590,7 +23596,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
@@ -23620,7 +23626,7 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -23647,7 +23653,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -23674,7 +23680,7 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
@@ -23701,7 +23707,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -23728,7 +23734,7 @@
       <c r="G20">
         <v>135</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -23755,7 +23761,7 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
@@ -23782,7 +23788,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="11">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -23809,7 +23815,7 @@
       <c r="G23">
         <v>400</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="11">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
@@ -23836,7 +23842,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -23863,7 +23869,7 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -23890,7 +23896,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -23917,7 +23923,7 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -23944,7 +23950,7 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -23971,7 +23977,7 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -23998,7 +24004,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="11">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
@@ -24025,7 +24031,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -24055,7 +24061,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24068,38 +24074,38 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>1365</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>859</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>1275</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4509</v>
       </c>
@@ -24109,34 +24115,34 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="15">
         <f>SUM(-B34,1500)</f>
         <v>135</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <f>SUM(-C34,1000)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <f>SUM(-D34,200)</f>
         <v>200</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <f>SUM(-E34,500)</f>
         <v>-359</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <f>SUM(-F34,100)</f>
         <v>90</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <f>SUM(-G34,1400)</f>
         <v>125</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>191</v>
       </c>
@@ -24160,35 +24166,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12" style="4"/>
-    <col min="3" max="3" width="17.140625" style="4"/>
-    <col min="4" max="4" width="17.7109375" style="4"/>
-    <col min="5" max="5" width="9.85546875" style="4"/>
-    <col min="6" max="6" width="11" style="4"/>
-    <col min="7" max="7" width="10.7109375" style="4"/>
+    <col min="1" max="2" width="12" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1"/>
+    <col min="4" max="4" width="17.7109375" style="1"/>
+    <col min="5" max="5" width="9.85546875" style="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="10.7109375" style="1"/>
     <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24903,35 +24909,35 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="17">
         <f t="shared" ref="B33:G33" si="0">SUM(B2:B32)</f>
         <v>1905</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="17">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>904</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="17">
         <f t="shared" si="0"/>
         <v>1282</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="29">
         <f>SUM(B33,C33,D33,E33,F33,G33)</f>
         <v>6454</v>
       </c>
@@ -24955,12 +24961,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -24969,28 +24975,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25004,7 +25010,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>0</v>
       </c>
@@ -25019,7 +25025,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25034,7 +25040,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25049,7 +25055,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25064,7 +25070,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25079,7 +25085,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25094,7 +25100,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25109,7 +25115,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25124,7 +25130,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25139,7 +25145,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25154,7 +25160,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25169,7 +25175,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25184,7 +25190,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25199,7 +25205,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25214,7 +25220,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25229,7 +25235,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25244,7 +25250,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25259,7 +25265,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25274,7 +25280,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25289,7 +25295,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25304,7 +25310,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25319,7 +25325,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25334,7 +25340,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25349,7 +25355,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25364,7 +25370,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25379,7 +25385,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25394,7 +25400,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25409,7 +25415,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25424,7 +25430,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25439,7 +25445,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25454,7 +25460,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25469,96 +25475,96 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>6600</v>
       </c>
@@ -25579,12 +25585,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="5.85546875"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="10" width="8.5703125"/>
@@ -25596,39 +25602,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -25642,28 +25648,28 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>105</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>1154</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="U2" s="20" t="s">
+      <c r="S2" s="32"/>
+      <c r="U2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25683,30 +25689,30 @@
       <c r="G3">
         <v>50</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>160</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <v>2000</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="U3" s="10"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -25722,28 +25728,28 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>4000</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <v>5000</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="U4" s="10"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -25757,28 +25763,28 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>15800</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <v>5000</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="U5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -25798,22 +25804,22 @@
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2883</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18">
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15">
         <v>10</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="U6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -25829,22 +25835,22 @@
       <c r="G7">
         <v>500</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>662</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18">
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
         <v>15</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="U7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -25862,26 +25868,26 @@
       <c r="G8">
         <v>370</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
         <v>21114</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
         <v>12000</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="U8" s="10">
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="U8" s="7">
         <v>270</v>
       </c>
     </row>
@@ -25901,15 +25907,15 @@
       <c r="G9">
         <v>100</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="U9" s="10"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -25925,15 +25931,15 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="U10" s="10">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="U10" s="7">
         <v>274</v>
       </c>
     </row>
@@ -25949,15 +25955,15 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="U11" s="10">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="U11" s="7">
         <v>344</v>
       </c>
     </row>
@@ -25979,15 +25985,15 @@
       <c r="G12">
         <v>1423</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="U12" s="10">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="U12" s="7">
         <v>1423</v>
       </c>
     </row>
@@ -26003,15 +26009,15 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="U13" s="10"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -26029,15 +26035,15 @@
       <c r="G14">
         <v>732</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>836</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="U14" s="10"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -26051,15 +26057,15 @@
         <v>125</v>
       </c>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="U15" s="10"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -26079,21 +26085,21 @@
       <c r="G16">
         <v>100</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>959</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="U16" s="10">
+      <c r="L16" s="31"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="16"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="U16" s="7">
         <v>438</v>
       </c>
     </row>
@@ -26113,23 +26119,23 @@
       <c r="G17">
         <v>3750</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>4209</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>6000</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="19"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="U17" s="10">
+      <c r="M17" s="18"/>
+      <c r="N17" s="16"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="U17" s="7">
         <v>290</v>
       </c>
     </row>
@@ -26145,25 +26151,25 @@
       <c r="G18">
         <v>1294</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>1294</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="7">
         <v>700</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>600</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="U18" s="10"/>
+      <c r="N18" s="16"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -26179,25 +26185,25 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="7">
         <v>300</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>50</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="U19" s="10">
+      <c r="N19" s="16"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="U19" s="7">
         <v>637</v>
       </c>
     </row>
@@ -26213,23 +26219,23 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>500</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="19"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="U20" s="10"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="16"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -26247,19 +26253,19 @@
       <c r="G21">
         <v>120</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="19"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="U21" s="10"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="16"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -26273,23 +26279,23 @@
       <c r="G22">
         <v>230</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>600</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="U22" s="10"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -26303,23 +26309,23 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>1000</v>
       </c>
-      <c r="M23" s="21"/>
-      <c r="N23" s="19"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="U23" s="10"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -26333,25 +26339,25 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>700</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>732</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="U24" s="10">
+      <c r="N24" s="16"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="7">
         <v>42</v>
       </c>
     </row>
@@ -26367,25 +26373,25 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="7">
         <v>1500</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>1423</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="U25" s="10">
+      <c r="N25" s="16"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="U25" s="7">
         <v>300</v>
       </c>
     </row>
@@ -26401,19 +26407,19 @@
       </c>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="19"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="U26" s="10"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="16"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -26429,19 +26435,19 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="U27" s="10"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -26455,19 +26461,19 @@
       <c r="G28">
         <v>100</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="19"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="U28" s="10"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="16"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -26479,19 +26485,19 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="19"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="U29" s="10"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="16"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -26503,19 +26509,19 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="19"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="U30" s="10"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="16"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -26527,25 +26533,25 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="18">
         <f>SUM(M17:M30)</f>
         <v>2805</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="U31" s="10"/>
+      <c r="N31" s="16"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -26557,15 +26563,15 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="U32" s="10"/>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -26577,111 +26583,111 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="20">
         <f>SUM(B2:B32)</f>
         <v>3208</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <f>SUM(C2:C32)</f>
         <v>3363</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <f>SUM(D2:D32)</f>
         <v>1477</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="20">
         <f>SUM(E2:E32)</f>
         <v>506</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="20">
         <f>SUM(F2:F33)</f>
         <v>524</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
         <v>8829</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25">
+      <c r="H34" s="21"/>
+      <c r="I34" s="22">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17907</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="23">
         <f>SUM(P3:P33)</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26">
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23">
         <f>SUM(R3:R32)</f>
         <v>15</v>
       </c>
-      <c r="S34" s="26"/>
+      <c r="S34" s="23"/>
       <c r="U34">
         <f>SUM(U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32)</f>
         <v>4018</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="25">
         <v>3000</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>3800</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="25">
         <v>1500</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="25">
         <v>1050</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>400</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="25">
         <f>SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>21050</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-208</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-124</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>2471</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>3143</v>
       </c>
@@ -26711,12 +26717,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -26725,28 +26731,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26762,7 +26768,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>30</v>
       </c>
@@ -26779,7 +26785,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -26796,7 +26802,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -26817,7 +26823,7 @@
       <c r="G5">
         <v>310</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
@@ -26836,7 +26842,7 @@
       <c r="G6">
         <v>140</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
@@ -26855,7 +26861,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -26876,7 +26882,7 @@
       <c r="G8">
         <v>150</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
@@ -26897,7 +26903,7 @@
       <c r="G9">
         <v>200</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>2938</v>
       </c>
@@ -26918,7 +26924,7 @@
       <c r="G10">
         <v>6000</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>6273</v>
       </c>
@@ -26935,7 +26941,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -26962,7 +26968,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -26987,7 +26993,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -27010,7 +27016,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -27035,7 +27041,7 @@
       <c r="G15">
         <v>390</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -27052,7 +27058,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -27071,7 +27077,7 @@
       </c>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
@@ -27088,7 +27094,7 @@
       </c>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -27105,7 +27111,7 @@
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
@@ -27122,7 +27128,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -27143,7 +27149,7 @@
       <c r="G21">
         <v>150</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
@@ -27160,14 +27166,14 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="26" t="s">
         <v>37</v>
       </c>
       <c r="Q22" t="s">
@@ -27189,12 +27195,12 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -27208,14 +27214,14 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="26">
         <v>5</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="26">
         <v>10</v>
       </c>
     </row>
@@ -27231,14 +27237,14 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="26">
         <v>25</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="26">
         <v>10</v>
       </c>
     </row>
@@ -27256,12 +27262,12 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -27279,12 +27285,12 @@
       <c r="G27">
         <v>100</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -27300,12 +27306,12 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -27319,14 +27325,14 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="26">
         <v>10</v>
       </c>
-      <c r="P29" s="29">
+      <c r="P29" s="26">
         <v>10</v>
       </c>
     </row>
@@ -27344,12 +27350,12 @@
       <c r="G30">
         <v>260</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
         <v>110</v>
       </c>
       <c r="Q30">
@@ -27368,12 +27374,12 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29">
+      <c r="O31" s="26"/>
+      <c r="P31" s="26">
         <v>10</v>
       </c>
       <c r="R31">
@@ -27390,12 +27396,12 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -27405,47 +27411,47 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>848</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>4008</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>1919</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>790</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>7700</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15265</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="26">
         <f>SUM(O24:O33)</f>
         <v>40</v>
       </c>
-      <c r="P34" s="29">
+      <c r="P34" s="26">
         <f>SUM(P23:P33)</f>
         <v>150</v>
       </c>
@@ -27459,69 +27465,69 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3800</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1050</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>8300</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>16000</v>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>652</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>-208</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-919</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>735</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27541,12 +27547,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -27555,28 +27561,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27592,7 +27598,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>140</v>
       </c>
@@ -27611,7 +27617,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
@@ -27630,7 +27636,7 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
@@ -27649,7 +27655,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
@@ -27668,7 +27674,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2777</v>
       </c>
@@ -27689,7 +27695,7 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -27710,7 +27716,7 @@
       <c r="G8">
         <v>550</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>1591</v>
       </c>
@@ -27731,7 +27737,7 @@
       <c r="G9">
         <v>12000</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>12317</v>
       </c>
@@ -27752,7 +27758,7 @@
       <c r="G10">
         <v>2650</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>2740</v>
       </c>
@@ -27771,7 +27777,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -27790,7 +27796,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -27807,7 +27813,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -27826,7 +27832,7 @@
       <c r="G14">
         <v>8000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>8010</v>
       </c>
@@ -27847,7 +27853,7 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
@@ -27864,7 +27870,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -27881,7 +27887,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -27898,7 +27904,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -27915,7 +27921,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -27934,7 +27940,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
@@ -27951,7 +27957,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -27968,7 +27974,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -27987,7 +27993,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -28006,7 +28012,7 @@
       <c r="G24">
         <v>20</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -28025,7 +28031,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
@@ -28042,7 +28048,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -28061,7 +28067,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
@@ -28078,7 +28084,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -28093,7 +28099,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28112,7 +28118,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -28129,7 +28135,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -28146,7 +28152,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -28161,96 +28167,96 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1653</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>1978</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>162</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>23360</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>30820</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-653</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-1278</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-112</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-22860</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-24220</v>
       </c>
@@ -28273,12 +28279,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -28287,28 +28293,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -28332,7 +28338,7 @@
       <c r="G2">
         <v>1067</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>3585</v>
       </c>
@@ -28351,7 +28357,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
@@ -28370,7 +28376,7 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
@@ -28387,7 +28393,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -28412,7 +28418,7 @@
       <c r="G6">
         <v>20</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>3074</v>
       </c>
@@ -28433,7 +28439,7 @@
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
@@ -28452,7 +28458,7 @@
         <v>440</v>
       </c>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>489</v>
       </c>
@@ -28469,7 +28475,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -28492,7 +28498,7 @@
       <c r="G10">
         <v>702</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
@@ -28511,7 +28517,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
@@ -28528,7 +28534,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -28545,7 +28551,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -28562,7 +28568,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -28583,7 +28589,7 @@
       <c r="G15">
         <v>100</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
@@ -28602,7 +28608,7 @@
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -28621,7 +28627,7 @@
       <c r="G17">
         <v>100</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -28640,7 +28646,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
@@ -28661,7 +28667,7 @@
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -28682,7 +28688,7 @@
       <c r="G20">
         <v>300</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>383</v>
       </c>
@@ -28701,7 +28707,7 @@
       <c r="G21">
         <v>1500</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
@@ -28725,7 +28731,7 @@
       <c r="G22">
         <v>10</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -28744,7 +28750,7 @@
       <c r="G23">
         <v>446</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
@@ -28772,7 +28778,7 @@
         <v>40</v>
       </c>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>1277</v>
       </c>
@@ -28793,7 +28799,7 @@
       <c r="G25">
         <v>180</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
@@ -28810,7 +28816,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -28829,7 +28835,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
@@ -28848,7 +28854,7 @@
       </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -28865,7 +28871,7 @@
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -28884,7 +28890,7 @@
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -28901,7 +28907,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
@@ -28916,7 +28922,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28931,96 +28937,96 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>2865</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>6289</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>2319</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>679</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>480</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>4425</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17057</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-1865</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>-5289</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-1619</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-629</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-130</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-3925</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-13457</v>
       </c>
@@ -29043,13 +29049,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -29058,31 +29064,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
@@ -29104,7 +29110,7 @@
       <c r="H2">
         <v>270</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>370</v>
       </c>
@@ -29126,7 +29132,7 @@
       <c r="H3">
         <v>200</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -29144,7 +29150,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -29164,7 +29170,7 @@
       <c r="H5">
         <v>270</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -29186,7 +29192,7 @@
       <c r="H6">
         <v>10000</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
@@ -29209,7 +29215,7 @@
       <c r="H7">
         <v>33</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -29227,7 +29233,7 @@
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -29249,7 +29255,7 @@
       </c>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -29269,7 +29275,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
@@ -29289,7 +29295,7 @@
       </c>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -29311,7 +29317,7 @@
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
@@ -29331,7 +29337,7 @@
       <c r="H13">
         <v>565</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
@@ -29349,7 +29355,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
@@ -29371,7 +29377,7 @@
       <c r="H15">
         <v>750</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -29389,7 +29395,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -29407,7 +29413,7 @@
       <c r="H17">
         <v>100</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -29425,7 +29431,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -29445,7 +29451,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
@@ -29465,7 +29471,7 @@
       <c r="H20">
         <v>945</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>1595</v>
       </c>
@@ -29483,7 +29489,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
@@ -29503,7 +29509,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -29521,7 +29527,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -29543,7 +29549,7 @@
       <c r="H24">
         <v>150</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>458</v>
       </c>
@@ -29561,7 +29567,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -29579,7 +29585,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -29595,7 +29601,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29611,7 +29617,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29629,7 +29635,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -29647,7 +29653,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -29665,7 +29671,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -29683,7 +29689,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -29699,70 +29705,70 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1206</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>700</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>40</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>2009</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>161</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(A34:F34)</f>
         <v>4116</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>13383</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>21615</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
@@ -29771,38 +29777,38 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-206</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-1309</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-111</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-3766</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-12883</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-17815</v>
       </c>
@@ -29829,13 +29835,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -29844,31 +29850,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -29887,7 +29893,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>241</v>
       </c>
@@ -29907,7 +29913,7 @@
       <c r="H3">
         <v>210</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
@@ -29925,7 +29931,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -29945,7 +29951,7 @@
       <c r="H5">
         <v>500</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
@@ -29965,7 +29971,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
@@ -29983,7 +29989,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -30007,7 +30013,7 @@
       <c r="H8">
         <v>341</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>1092</v>
       </c>
@@ -30025,7 +30031,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -30041,7 +30047,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30057,7 +30063,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30075,7 +30081,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
@@ -30095,7 +30101,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -30113,7 +30119,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -30133,7 +30139,7 @@
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -30151,7 +30157,7 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
@@ -30169,7 +30175,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -30187,7 +30193,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -30205,7 +30211,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -30223,7 +30229,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -30241,7 +30247,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
@@ -30261,7 +30267,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -30281,7 +30287,7 @@
       <c r="H23">
         <v>4100</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -30301,7 +30307,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
@@ -30319,7 +30325,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -30335,7 +30341,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30351,7 +30357,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30367,7 +30373,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30383,7 +30389,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30399,7 +30405,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30415,7 +30421,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30431,7 +30437,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30447,104 +30453,104 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1326</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1924</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>422</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5151</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>9823</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-326</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-1224</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-372</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-4651</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-6023</v>
       </c>
@@ -30567,13 +30573,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -30582,31 +30588,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30623,7 +30629,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>18</v>
       </c>
@@ -30641,7 +30647,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -30657,7 +30663,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30675,7 +30681,7 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -30691,7 +30697,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30711,7 +30717,7 @@
         <v>100</v>
       </c>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
@@ -30733,7 +30739,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
@@ -30751,7 +30757,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -30769,7 +30775,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -30789,7 +30795,7 @@
       <c r="H11">
         <v>400</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
@@ -30809,7 +30815,7 @@
       <c r="H12">
         <v>500</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
@@ -30827,7 +30833,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -30847,7 +30853,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
@@ -30867,7 +30873,7 @@
       <c r="H15">
         <v>50</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -30888,7 +30894,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -30911,7 +30917,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
@@ -30929,7 +30935,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -30951,7 +30957,7 @@
       <c r="H19">
         <v>580</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
@@ -30971,7 +30977,7 @@
       <c r="H20">
         <v>180</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
@@ -30991,7 +30997,7 @@
       <c r="H21">
         <v>260</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -31013,7 +31019,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
@@ -31033,7 +31039,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
@@ -31051,7 +31057,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -31073,7 +31079,7 @@
       <c r="H25">
         <v>2149</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>2944</v>
       </c>
@@ -31092,7 +31098,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31112,7 +31118,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
@@ -31130,7 +31136,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -31150,7 +31156,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -31168,7 +31174,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -31188,7 +31194,7 @@
       <c r="H31">
         <v>1500</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>1525</v>
       </c>
@@ -31204,7 +31210,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31220,107 +31226,107 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1269</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1691</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(A34:F34)</f>
         <v>4960</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5679</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15599</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-269</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-991</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-950</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-4610</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-5179</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-11799</v>
       </c>
@@ -31343,13 +31349,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -31358,31 +31364,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31403,7 +31409,7 @@
       <c r="H2">
         <v>260</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>557</v>
       </c>
@@ -31431,7 +31437,7 @@
       <c r="H3">
         <v>500</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
@@ -31458,7 +31464,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -31482,7 +31488,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
@@ -31508,7 +31514,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>2835</v>
       </c>
@@ -31532,7 +31538,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -31552,7 +31558,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>787</v>
       </c>
@@ -31570,7 +31576,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -31590,7 +31596,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
@@ -31610,7 +31616,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>3218</v>
       </c>
@@ -31628,7 +31634,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -31648,7 +31654,7 @@
       <c r="H13">
         <v>209</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
@@ -31670,7 +31676,7 @@
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -31688,7 +31694,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -31706,7 +31712,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -31724,7 +31730,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -31744,7 +31750,7 @@
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>566</v>
       </c>
@@ -31768,7 +31774,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -31788,7 +31794,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
@@ -31806,7 +31812,7 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -31826,7 +31832,7 @@
       <c r="H22">
         <v>400</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>584</v>
       </c>
@@ -31846,7 +31852,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -31872,7 +31878,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
@@ -31892,7 +31898,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -31912,7 +31918,7 @@
       <c r="H26">
         <v>100</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -31932,7 +31938,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
@@ -31950,7 +31956,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -31968,7 +31974,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -31986,7 +31992,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -32004,7 +32010,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -32024,7 +32030,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -32040,107 +32046,107 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:H34" si="1">SUM(B2:B32)</f>
         <v>1710</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>7973</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1953</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>661</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f t="shared" si="1"/>
         <v>1469</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>13766</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1500</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>500</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>400</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6100</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="2">SUM(-B34,B35)</f>
         <v>-210</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>-6973</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-1253</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-161</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="2"/>
         <v>-969</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-7666</v>
       </c>

--- a/DailyExpenditure.xlsx
+++ b/DailyExpenditure.xlsx
@@ -10,26 +10,27 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template2" sheetId="1" r:id="rId1"/>
-    <sheet name="Dec-2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Nov-2017" sheetId="3" r:id="rId3"/>
-    <sheet name="Oct-2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Sep-2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Aug-2017" sheetId="6" r:id="rId6"/>
-    <sheet name="July-2017" sheetId="7" r:id="rId7"/>
-    <sheet name="June-2017" sheetId="8" r:id="rId8"/>
-    <sheet name="May-2017" sheetId="9" r:id="rId9"/>
-    <sheet name="April-2017" sheetId="10" r:id="rId10"/>
-    <sheet name="March-2017" sheetId="11" r:id="rId11"/>
-    <sheet name="February-2017" sheetId="12" r:id="rId12"/>
-    <sheet name="January-2017" sheetId="13" r:id="rId13"/>
-    <sheet name="December-2016" sheetId="14" r:id="rId14"/>
-    <sheet name="November-2016" sheetId="15" r:id="rId15"/>
-    <sheet name="October-2016" sheetId="16" r:id="rId16"/>
-    <sheet name="template" sheetId="17" r:id="rId17"/>
+    <sheet name="June-2018" sheetId="18" r:id="rId2"/>
+    <sheet name="Dec-2017" sheetId="2" r:id="rId3"/>
+    <sheet name="Nov-2017" sheetId="3" r:id="rId4"/>
+    <sheet name="Oct-2017" sheetId="4" r:id="rId5"/>
+    <sheet name="Sep-2017" sheetId="5" r:id="rId6"/>
+    <sheet name="Aug-2017" sheetId="6" r:id="rId7"/>
+    <sheet name="July-2017" sheetId="7" r:id="rId8"/>
+    <sheet name="June-2017" sheetId="8" r:id="rId9"/>
+    <sheet name="May-2017" sheetId="9" r:id="rId10"/>
+    <sheet name="April-2017" sheetId="10" r:id="rId11"/>
+    <sheet name="March-2017" sheetId="11" r:id="rId12"/>
+    <sheet name="February-2017" sheetId="12" r:id="rId13"/>
+    <sheet name="January-2017" sheetId="13" r:id="rId14"/>
+    <sheet name="December-2016" sheetId="14" r:id="rId15"/>
+    <sheet name="November-2016" sheetId="15" r:id="rId16"/>
+    <sheet name="October-2016" sheetId="16" r:id="rId17"/>
+    <sheet name="template" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
@@ -92,6 +93,34 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>chicken 190
+HP 30
+Milk items 56</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -114,37 +143,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>LOAN 854
-IRON BOX 100
-HAIR 60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">HP 360
-BAKERY 160
-</t>
+          <t>Waste 150
+Paper 110</t>
         </r>
       </text>
     </comment>
@@ -170,38 +170,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">VAIDYAN 90
-AMMA 700
-DELNA 200
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BF 40
-Lunch 50
-Tea 22</t>
+          <t>JP Return</t>
         </r>
       </text>
     </comment>
@@ -227,8 +196,33 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Treat 334
-Tea 10</t>
+          <t>Supper 160 Chinees offer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>EMI</t>
         </r>
       </text>
     </comment>
@@ -243,6 +237,24 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t>Arun K. Mathew:
+58 BF
+Tea 18
+supper 100 Late night office</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Arun K. Mathew:
 </t>
         </r>
@@ -254,12 +266,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Tret 197
-suppe 74</t>
+          <t>67 BF
+20 Tea
+200 Supper</t>
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,11 +294,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Paul marriage</t>
+          <t xml:space="preserve">BF 35
+snacks 8
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,11 +322,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Nimmy Marriage</t>
+          <t>Break faset 48
+24 Tea</t>
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,12 +349,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">shoe polish 88
-</t>
+          <t>Helmet 1550
+Rain coat 1550</t>
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +376,524 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Movie</t>
+          <t>Tea 18
+supper 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3rd service</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lunch 50 
+30 juice
+10 hf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>30 momo
+15 lime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>milk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>10 tea
+25 tea
+84 dinner</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tea 10
+tea 25
+supper 94</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>uber 100
+bus 36
+bus 201
+bus 60
+bus 31
+bus 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">hp 350
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>bus 20
+bus 32
+train 100
+bus 23
+auto 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>400 amma karottu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrol 300</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>42 tea 
+8 tea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tea 22
+tea 18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tea 20
+Tea 34
+Food 18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arun krishnan gift 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrol 500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BF 75
+Tea 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>THP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>THP</t>
         </r>
       </text>
     </comment>
@@ -396,8 +929,66 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Mobile Service Final Payment
-Total (1694)</t>
+          <t>LOAN 854
+IRON BOX 100
+HAIR 60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">HP 360
+BAKERY 160
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">VAIDYAN 90
+AMMA 700
+DELNA 200
+</t>
         </r>
       </text>
     </comment>
@@ -423,11 +1014,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>120 Lunch</t>
+          <t>BF 40
+Lunch 50
+Tea 22</t>
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -449,11 +1042,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Film 170</t>
+          <t>Treat 334
+Tea 10</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,11 +1069,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>8 GB Data 30 days</t>
+          <t>Tret 197
+suppe 74</t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,12 +1096,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Cable One Year 1620
-Mobile Data 292</t>
+          <t>Paul marriage</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,11 +1122,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Bike EMI</t>
+          <t>Nimmy Marriage</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,12 +1148,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Waste 100
-dry cleaning 135</t>
+          <t xml:space="preserve">shoe polish 88
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -581,221 +1175,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Shirt stiching 1400</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">New Head set
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>74 supper
-28 Tea</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Hima Gift
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BF 40
-Lunch 120</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Movie 83
-Water 20</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Gas cylender</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BF 55
-Lunch 120</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>46 Tea (26 Abin ,Firoz)</t>
+          <t>Movie</t>
         </r>
       </text>
     </comment>
@@ -809,7 +1189,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -831,12 +1211,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>100 Waste 
-150 Dry cleaning</t>
+          <t>Mobile Service Final Payment
+Total (1694)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -858,11 +1238,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>University fees and postal charges</t>
+          <t>120 Lunch</t>
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,11 +1264,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Paper</t>
+          <t>Film 170</t>
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +1290,34 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Home </t>
+          <t>8 GB Data 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cable One Year 1620
+Mobile Data 292</t>
         </r>
       </text>
     </comment>
@@ -936,12 +1343,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EMI 2663
-Petrol 500</t>
+          <t>Bike EMI</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,11 +1369,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Auto </t>
+          <t>Waste 100
+dry cleaning 135</t>
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -989,12 +1396,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Salary 10326
-neethu 5000</t>
+          <t>Shirt stiching 1400</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,11 +1422,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Lunch</t>
+          <t xml:space="preserve">New Head set
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,11 +1449,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Idea Bill</t>
+          <t>74 supper
+28 Tea</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1068,12 +1476,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Back Pack Order 1360
-Mobile service advance 1000</t>
+          <t xml:space="preserve">Hima Gift
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1096,12 +1504,11 @@
             <charset val="1"/>
           </rPr>
           <t>BF 40
-Lunch 30
-Supper 65</t>
+Lunch 120</t>
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="H27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1123,11 +1530,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pants</t>
+          <t>Movie 83
+Water 20</t>
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1149,12 +1557,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>100 Lunch
-180 Curry for supper</t>
+          <t>Gas cylender</t>
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,12 +1583,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>18 Tea
-130 Supper</t>
+          <t>BF 55
+Lunch 120</t>
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1203,85 +1610,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Train Ticket TLY-ERN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">LULU Supper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Phone 3G Recharge</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Boke Cover</t>
+          <t>46 Tea (26 Abin ,Firoz)</t>
         </r>
       </text>
     </comment>
@@ -1295,7 +1624,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1317,8 +1646,60 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Supper 114
-Tea 18</t>
+          <t>100 Waste 
+150 Dry cleaning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>University fees and postal charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Paper</t>
         </r>
       </text>
     </comment>
@@ -1344,11 +1725,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">B Day gift for 3 </t>
+          <t xml:space="preserve">Home </t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1370,33 +1751,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Barbeque Nation </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BSNL Bill</t>
+          <t>EMI 2663
+Petrol 500</t>
         </r>
       </text>
     </comment>
@@ -1422,7 +1778,60 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Idea Bill</t>
+          <t xml:space="preserve">Auto </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Salary 10326
+neethu 5000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lunch</t>
         </r>
       </text>
     </comment>
@@ -1448,13 +1857,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>New Chappel 470
-Banana 250
-other 240</t>
+          <t>Idea Bill</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1476,14 +1883,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Last KM run 393
-Petrol 6.79 Litter
-Rate 73.6
-Mileage 55.3</t>
+          <t>Back Pack Order 1360
+Mobile service advance 1000</t>
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1505,12 +1910,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-Bus 335</t>
+          <t>BF 40
+Lunch 30
+Supper 65</t>
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1524,9 +1930,19 @@
           <t xml:space="preserve">Arun K. Mathew:
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pants</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1548,8 +1964,87 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Ticket Cancelation 240
-Train tickets :371+191+201</t>
+          <t>100 Lunch
+180 Curry for supper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>18 Tea
+130 Supper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Train Ticket TLY-ERN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">LULU Supper </t>
         </r>
       </text>
     </comment>
@@ -1575,12 +2070,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1250 Gift for teachers
-50 waste </t>
+          <t>Phone 3G Recharge</t>
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1602,249 +2096,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Last KM run :432.6
-Petrol  6.74 liter
-Rate 74.21
-Mileage 63.7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Break fast 60
-Lunch 100
-Juice 20</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">186 Sweets 
-380 Belt for chettan
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Snacks 28
-Tea 75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Home </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G32" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home</t>
+          <t>Boke Cover</t>
         </r>
       </text>
     </comment>
@@ -1858,7 +2110,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1880,14 +2132,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Lunch 110
-Supper 50
-Tea 20
-Tea 10</t>
+          <t>Supper 114
+Tea 18</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1909,34 +2159,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pappa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Paper 110
-Waste 100</t>
+          <t xml:space="preserve">B Day gift for 3 </t>
         </r>
       </text>
     </comment>
@@ -1962,11 +2185,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Supper 16</t>
+          <t xml:space="preserve">Barbeque Nation </t>
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1988,11 +2211,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>24000 Taken from Account</t>
+          <t>BSNL Bill</t>
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2014,11 +2237,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>2nd service</t>
+          <t>Idea Bill</t>
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,12 +2263,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Break fase 48
-Lunch 50</t>
+          <t>New Chappel 470
+Banana 250
+other 240</t>
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2067,7 +2291,80 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Bet prize to Denoy</t>
+          <t>Last KM run 393
+Petrol 6.79 Litter
+Rate 73.6
+Mileage 55.3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bus 335</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ticket Cancelation 240
+Train tickets :371+191+201</t>
         </r>
       </text>
     </comment>
@@ -2093,8 +2390,65 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>X Mas 60
-Trigil B Day 125</t>
+          <t xml:space="preserve">1250 Gift for teachers
+50 waste </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Last KM run :432.6
+Petrol  6.74 liter
+Rate 74.21
+Mileage 63.7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Break fast 60
+Lunch 100
+Juice 20</t>
         </r>
       </text>
     </comment>
@@ -2120,11 +2474,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>X Mas Gift</t>
+          <t xml:space="preserve">186 Sweets 
+380 Belt for chettan
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2146,13 +2502,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>KM Run 448
-Petrol 7.11 liter
-Mileage 63</t>
+          <t>Snacks 28
+Tea 75</t>
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="0" shapeId="0">
+    <comment ref="G27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2163,8 +2518,148 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Arun K. Mathew:
-Available Money</t>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Home </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home</t>
         </r>
       </text>
     </comment>
@@ -2200,11 +2695,14 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Late work supper 44</t>
+          <t>Lunch 110
+Supper 50
+Tea 20
+Tea 10</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2226,11 +2724,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>home waste</t>
+          <t>Pappa</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,11 +2750,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>News Paper</t>
+          <t>Paper 110
+Waste 100</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2278,86 +2777,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Dress ironing </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>KSRTC TICKET</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Iron Box 150</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Idea Bill 344
-</t>
+          <t>Supper 16</t>
         </r>
       </text>
     </comment>
@@ -2383,11 +2803,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>BSNL Bill</t>
+          <t>24000 Taken from Account</t>
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2409,11 +2829,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Late night food</t>
+          <t>2nd service</t>
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2435,11 +2855,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Dry Cleaning</t>
+          <t>Break fase 48
+Lunch 50</t>
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2461,12 +2882,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Break fast 48
-Lunch 50</t>
+          <t>Bet prize to Denoy</t>
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2488,11 +2908,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Biriyani 140</t>
+          <t>X Mas 60
+Trigil B Day 125</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2514,11 +2935,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Movie</t>
+          <t>X Mas Gift</t>
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2540,85 +2961,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Supper 90</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Supper 87</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>B Day Treat (Total 1400 ,got gift voucher worth 1000)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>To Denoy</t>
+          <t>KM Run 448
+Petrol 7.11 liter
+Mileage 63</t>
         </r>
       </text>
     </comment>
@@ -2633,18 +2978,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Home Visit Total expense</t>
+          <t>Arun K. Mathew:
+Available Money</t>
         </r>
       </text>
     </comment>
@@ -2658,6 +2993,486 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Late work supper 44</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>home waste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>News Paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Dress ironing </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>KSRTC TICKET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Iron Box 150</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Idea Bill 344
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BSNL Bill</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Late night food</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dry Cleaning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Break fast 48
+Lunch 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Biriyani 140</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Movie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Supper 90</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Supper 87</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>B Day Treat (Total 1400 ,got gift voucher worth 1000)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>To Denoy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Home Visit Total expense</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2980,647 +3795,46 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>Arun K Mathew</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">5 th service 
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Flex kwik 50</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arun K Mathew:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+perumbavoor travel
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>25 Trigil
-135 Sadam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>OLD 1000
-NEW 4000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Safeer gift 50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>47 BF
-100 lunch
-15 tea</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Treat ti Cerner team </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">270 Mouse
-100 waste </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mouse 270</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>sadam treat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Switch 194</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Thevara Purchase 344</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Colgate, batery</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>KSEB Bill</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>KSEB Bill</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tea 20
-lunch 90</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>LPG 732</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BSNL recharge</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Gio recharge</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>X mas 100</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>100 water
-229 hp</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">3600 Plywood
-150 auto
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>300 auto
-250 parcel charge
-420 food
-food 64
-cake 260</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>x mas gift</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>office 100</t>
         </r>
       </text>
     </comment>
@@ -3634,7 +3848,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3656,7 +3870,61 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>new chappal 310</t>
+          <t>Flex kwik 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>25 Trigil
+135 Sadam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>OLD 1000
+NEW 4000</t>
         </r>
       </text>
     </comment>
@@ -3682,7 +3950,61 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>130 Anupriya wedding gift</t>
+          <t>Safeer gift 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>47 BF
+100 lunch
+15 tea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Treat ti Cerner team </t>
         </r>
       </text>
     </comment>
@@ -3708,7 +4030,23 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>150 petrol share</t>
+          <t xml:space="preserve">270 Mouse
+100 waste </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mouse 270</t>
         </r>
       </text>
     </comment>
@@ -3734,11 +4072,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Office exp 200</t>
+          <t>sadam treat</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="U10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3760,11 +4098,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To HM</t>
+          <t>Switch 194</t>
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3786,11 +4124,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Balu visit</t>
+          <t>Thevara Purchase 344</t>
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0">
+    <comment ref="U11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3812,12 +4150,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>curry 10
-tea 15</t>
+          <t>Colgate, batery</t>
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3839,11 +4176,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Polishing, washing</t>
+          <t>KSEB Bill</t>
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="U12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3865,11 +4202,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Petrol 500</t>
+          <t>KSEB Bill</t>
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3891,11 +4228,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Elvin 100</t>
+          <t>tea 20
+lunch 90</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3917,12 +4255,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Biriyani 110
-Tea 15</t>
+          <t>LPG 732</t>
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3944,11 +4281,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>260 Trigil , Mani treat</t>
+          <t>BSNL recharge</t>
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3970,12 +4307,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>15 tea
-45 food</t>
+          <t>Gio recharge</t>
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3997,11 +4333,160 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>HM 6000
-Thodupuzha mrg 300
-Hm other 500
-Dinoy 1000 
-Other 500</t>
+          <t>X mas 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>100 water
+229 hp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">3600 Plywood
+150 auto
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>300 auto
+250 parcel charge
+420 food
+food 64
+cake 260</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>x mas gift</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>office 100</t>
         </r>
       </text>
     </comment>
@@ -4015,7 +4500,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4037,11 +4522,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>waste 100</t>
+          <t>new chappal 310</t>
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4063,7 +4548,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Thrissur get together</t>
+          <t>130 Anupriya wedding gift</t>
         </r>
       </text>
     </comment>
@@ -4089,7 +4574,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Belt 550</t>
+          <t>150 petrol share</t>
         </r>
       </text>
     </comment>
@@ -4115,7 +4600,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Jose pappan 12000</t>
+          <t>Office exp 200</t>
         </r>
       </text>
     </comment>
@@ -4141,12 +4626,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Gas cylender 650
-Dinoy 2000</t>
+          <t>To HM</t>
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4168,11 +4652,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To pappa</t>
+          <t>Balu visit</t>
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4194,8 +4678,196 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>30 tea
-70 curry</t>
+          <t>curry 10
+tea 15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Polishing, washing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrol 500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Elvin 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Biriyani 110
+Tea 15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>260 Trigil , Mani treat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>15 tea
+45 food</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HM 6000
+Thodupuzha mrg 300
+Hm other 500
+Dinoy 1000 
+Other 500</t>
         </r>
       </text>
     </comment>
@@ -4209,7 +4881,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4231,11 +4903,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Bike insurance</t>
+          <t>waste 100</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4257,13 +4929,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Medicine 287
-Pendrive 400
-Textile 380</t>
+          <t>Thrissur get together</t>
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4285,11 +4955,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Saddam </t>
+          <t>Belt 550</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4311,8 +4981,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Petrol
-</t>
+          <t>Jose pappan 12000</t>
         </r>
       </text>
     </comment>
@@ -4338,14 +5007,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Medicine 417
-Other 185
-Waste 100
-</t>
+          <t>Gas cylender 650
+Dinoy 2000</t>
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4367,11 +5034,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Post Office Account</t>
+          <t>To pappa</t>
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4393,139 +5060,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Wifi dongle. 1500</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>To Dinoy</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Ksrtc ticket 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Kondotty 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Movie 180</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Bike petrol</t>
+          <t>30 tea
+70 curry</t>
         </r>
       </text>
     </comment>
@@ -4539,7 +5075,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4561,12 +5097,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Paper 120
-waste 150</t>
+          <t>Bike insurance</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4588,11 +5123,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>200 photo+xerox</t>
+          <t>Medicine 287
+Pendrive 400
+Textile 380</t>
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4614,11 +5151,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insurance</t>
+          <t xml:space="preserve">Saddam </t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4640,11 +5177,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To pappa</t>
+          <t xml:space="preserve">Petrol
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4666,11 +5204,14 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>medicine</t>
+          <t xml:space="preserve">Medicine 417
+Other 185
+Waste 100
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4692,11 +5233,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Bus 29</t>
+          <t>Post Office Account</t>
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4718,13 +5259,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Reji uncle gift 501
-other 20
-envelope 45</t>
+          <t>Wifi dongle. 1500</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="K21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4746,11 +5285,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Train ticket 750</t>
+          <t>To Dinoy</t>
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4772,11 +5311,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Drinking water 100</t>
+          <t xml:space="preserve">Ksrtc ticket 
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4798,12 +5338,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Kayees biriyani
+          <t xml:space="preserve">Kondotty 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4825,11 +5365,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Medicine</t>
+          <t>Movie 180</t>
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4851,8 +5391,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">vineeth gift 150
-</t>
+          <t>Bike petrol</t>
         </r>
       </text>
     </comment>
@@ -4866,7 +5405,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4888,36 +5427,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Water bottlle 100
-milk 21
-banan 21</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>lunch 40
-supper 63</t>
+          <t>Paper 120
+waste 150</t>
         </r>
       </text>
     </comment>
@@ -4943,63 +5454,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>110 paper
-100 waste</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BF 40
-Lunch 70
-Tea 20</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tea 18
-Curry 60 </t>
+          <t>200 photo+xerox</t>
         </r>
       </text>
     </comment>
@@ -5025,11 +5480,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Water tanker 500</t>
+          <t>Insurance</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5051,11 +5506,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>HP 166</t>
+          <t>To pappa</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5066,14 +5521,22 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Arun K. Mathew:
-Break fast 48
-Lunch 120
-Supper 51</t>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>medicine</t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5095,11 +5558,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Chicken</t>
+          <t>Bus 29</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5121,11 +5584,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Lunch 96</t>
+          <t>Reji uncle gift 501
+other 20
+envelope 45</t>
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5147,12 +5612,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Print 51
-290 Shoes</t>
+          <t>Train ticket 750</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5174,11 +5638,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Chapaty 40</t>
+          <t>Drinking water 100</t>
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5200,14 +5664,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>56 morning
-50 lunch
-20 tea
-160 supper</t>
+          <t xml:space="preserve">Kayees biriyani
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5221,9 +5683,19 @@
           <t xml:space="preserve">Arun K. Mathew:
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Medicine</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="H24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5245,226 +5717,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>56 morning
-44 tea</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
+          <t xml:space="preserve">vineeth gift 150
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tea 48</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>20 tea 
-80 supper
-20 water</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>40 bus 
-60 auto
-20 auto
-291 bus</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>37 BF
-50 lunch
-18 tea
-77 lunch</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Linch 100</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Titan Spex</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>curry 80
-Tea 25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tea 10
-supper 160</t>
         </r>
       </text>
     </comment>
@@ -5500,11 +5754,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>THP 525</t>
+          <t>Water bottlle 100
+milk 21
+banan 21</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5526,12 +5782,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">THP 44
-</t>
+          <t>lunch 40
+supper 63</t>
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5553,8 +5809,212 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Pappa train ticket
+          <t>110 paper
+100 waste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BF 40
+Lunch 70
+Tea 20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tea 18
+Curry 60 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Water tanker 500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP 166</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arun K. Mathew:
+Break fast 48
+Lunch 120
+Supper 51</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chicken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lunch 96</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Print 51
+290 Shoes</t>
         </r>
       </text>
     </comment>
@@ -5580,60 +6040,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Tea, Feroz-24
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tea 42</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Suraj child gift</t>
+          <t>Chapaty 40</t>
         </r>
       </text>
     </comment>
@@ -5659,11 +6066,14 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Tea 15</t>
+          <t>56 morning
+50 lunch
+20 tea
+160 supper</t>
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5677,15 +6087,32 @@
           <t xml:space="preserve">Arun K. Mathew:
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Umbrella 500</t>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>56 morning
+44 tea</t>
         </r>
       </text>
     </comment>
@@ -5711,12 +6138,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Supper 52
-Tea 54</t>
+          <t>Tea 48</t>
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5738,11 +6164,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Watch battery 60</t>
+          <t>20 tea 
+80 supper
+20 water</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5764,11 +6192,14 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Upesh marriage </t>
+          <t>40 bus 
+60 auto
+20 auto
+291 bus</t>
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5790,140 +6221,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Morning 65
-Lunch 120
-Dinner 70</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>HF lunch 120</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Bag 580</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>A4 sheet paper</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dry cleaning</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tea 38
-Supper 35</t>
+          <t>37 BF
+50 lunch
+18 tea
+77 lunch</t>
         </r>
       </text>
     </comment>
@@ -5949,7 +6250,33 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>BF 30</t>
+          <t>Linch 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Titan Spex</t>
         </r>
       </text>
     </comment>
@@ -5975,35 +6302,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>130 curry
-10 tea</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Chicken 240
-HP 20</t>
+          <t>curry 80
+Tea 25</t>
         </r>
       </text>
     </comment>
@@ -6029,92 +6329,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">555 Kayes Mbiriyani
-7 tea
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Porter 300
-Auto 80
-Milkpowder 500
-Key chain 60 
-Taxi 1200
-Bus 9</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tea 16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Gym admission 1500</t>
+          <t>tea 10
+supper 160</t>
         </r>
       </text>
     </comment>
@@ -6150,13 +6366,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>chicken 190
-HP 30
-Milk items 56</t>
+          <t>THP 525</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6178,12 +6392,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Waste 150
-Paper 110</t>
+          <t xml:space="preserve">THP 44
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6205,105 +6419,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>JP Return</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
+          <t xml:space="preserve">Pappa train ticket
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Supper 160 Chinees offer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>EMI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arun K. Mathew:
-58 BF
-Tea 18
-supper 100 Late night office</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>67 BF
-20 Tea
-200 Supper</t>
         </r>
       </text>
     </comment>
@@ -6329,63 +6446,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">BF 35
-snacks 8
+          <t xml:space="preserve">Tea, Feroz-24
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Break faset 48
-24 Tea</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Helmet 1550
-Rain coat 1550</t>
         </r>
       </text>
     </comment>
@@ -6411,12 +6473,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Tea 18
-supper 100</t>
+          <t>Tea 42</t>
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6438,7 +6499,59 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>3rd service</t>
+          <t>Suraj child gift</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tea 15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Umbrella 500</t>
         </r>
       </text>
     </comment>
@@ -6464,13 +6577,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Lunch 50 
-30 juice
-10 hf</t>
+          <t>Supper 52
+Tea 54</t>
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6492,12 +6604,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>30 momo
-15 lime</t>
+          <t>Watch battery 60</t>
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6519,11 +6630,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>milk</t>
+          <t xml:space="preserve">Upesh marriage </t>
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6545,9 +6656,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>10 tea
-25 tea
-84 dinner</t>
+          <t>Morning 65
+Lunch 120
+Dinner 70</t>
         </r>
       </text>
     </comment>
@@ -6573,13 +6684,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>tea 10
-tea 25
-supper 94</t>
+          <t>HF lunch 120</t>
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6601,16 +6710,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>uber 100
-bus 36
-bus 201
-bus 60
-bus 31
-bus 9</t>
+          <t>Bag 580</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6632,12 +6736,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">hp 350
-</t>
+          <t>A4 sheet paper</t>
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6659,15 +6762,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>bus 20
-bus 32
-train 100
-bus 23
-auto 10</t>
+          <t>Dry cleaning</t>
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6689,33 +6788,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>400 amma karottu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrol 300</t>
+          <t>Tea 38
+Supper 35</t>
         </r>
       </text>
     </comment>
@@ -6741,8 +6815,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>42 tea 
-8 tea</t>
+          <t>BF 30</t>
         </r>
       </text>
     </comment>
@@ -6768,8 +6841,35 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Tea 22
-tea 18</t>
+          <t>130 curry
+10 tea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Arun K. Mathew:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chicken 240
+HP 20</t>
         </r>
       </text>
     </comment>
@@ -6795,13 +6895,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Tea 20
-Tea 34
-Food 18</t>
+          <t xml:space="preserve">555 Kayes Mbiriyani
+7 tea
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6823,11 +6923,16 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Arun krishnan gift 100</t>
+          <t>Porter 300
+Auto 80
+Milkpowder 500
+Key chain 60 
+Taxi 1200
+Bus 9</t>
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="E27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6849,11 +6954,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Petrol 500</t>
+          <t>Tea 16</t>
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="H31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6875,60 +6980,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>BF 75
-Tea 10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>THP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Arun K. Mathew:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>THP</t>
+          <t>Gym admission 1500</t>
         </r>
       </text>
     </comment>
@@ -6937,7 +6989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
   <si>
     <t>DATE</t>
   </si>
@@ -18806,8 +18858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView windowProtection="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18864,49 +18916,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>160</v>
-      </c>
-      <c r="D2">
-        <v>349</v>
-      </c>
-      <c r="E2">
-        <v>379</v>
-      </c>
-      <c r="G2">
-        <v>15000</v>
-      </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
-        <v>15888</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
-        <v>30000</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="5">
-        <v>38000</v>
-      </c>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>695</v>
-      </c>
-      <c r="D3">
-        <v>218</v>
-      </c>
-      <c r="G3">
-        <v>177</v>
-      </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>11</v>
@@ -18919,15 +18946,9 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>340</v>
-      </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>12</v>
@@ -18940,18 +18961,9 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5">
-        <v>95</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>13</v>
@@ -18964,12 +18976,9 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>166</v>
-      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
@@ -19000,12 +19009,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -19095,9 +19104,7 @@
       <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="7">
-        <v>15000</v>
-      </c>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -19136,9 +19143,7 @@
       <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="7">
-        <v>4000</v>
-      </c>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -19162,9 +19167,7 @@
       <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="7">
-        <v>2000</v>
-      </c>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -19177,9 +19180,7 @@
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="7">
-        <v>1000</v>
-      </c>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -19273,7 +19274,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
-        <v>22000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -19291,19 +19292,19 @@
       </c>
       <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
-        <v>1195</v>
+        <v>0</v>
       </c>
       <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
@@ -19311,12 +19312,12 @@
       </c>
       <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
-        <v>15517</v>
+        <v>0</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>18309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19340,12 +19341,12 @@
       </c>
       <c r="G35" s="13">
         <f>SUM(L17:L30)</f>
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
-        <v>30100</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19354,19 +19355,19 @@
       </c>
       <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
-        <v>1340</v>
+        <v>1500</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="1"/>
-        <v>3105</v>
+        <v>4300</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="1"/>
@@ -19374,11 +19375,11 @@
       </c>
       <c r="G36" s="15">
         <f t="shared" si="1"/>
-        <v>6483</v>
+        <v>0</v>
       </c>
       <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
-        <v>11791</v>
+        <v>8100</v>
       </c>
     </row>
   </sheetData>
@@ -19395,6 +19396,826 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
+    <col min="9" max="9" width="2.42578125"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="12" width="8.5703125"/>
+    <col min="13" max="13" width="15.42578125"/>
+    <col min="14" max="1025" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>276</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2">
+        <v>260</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
+        <v>557</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+      <c r="M3">
+        <v>600</v>
+      </c>
+      <c r="N3">
+        <v>3000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5">
+        <v>178</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="N5">
+        <v>370</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6">
+        <v>2663</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>172</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>2835</v>
+      </c>
+      <c r="N6">
+        <v>500</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>287</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>331</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10">
+        <v>72</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11">
+        <v>3100</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>118</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13">
+        <v>209</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14">
+        <v>610</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17">
+        <v>119</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18">
+        <v>129</v>
+      </c>
+      <c r="F18">
+        <v>437</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>350</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22">
+        <v>184</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22">
+        <v>400</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23">
+        <v>300</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>185</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25">
+        <v>72</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <v>48</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28">
+        <v>85</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>73</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" ref="B34:H34" si="1">SUM(B2:B32)</f>
+        <v>1710</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>1953</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>661</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="1"/>
+        <v>1469</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
+        <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
+        <v>13766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="13">
+        <v>700</v>
+      </c>
+      <c r="F35" s="13">
+        <v>500</v>
+      </c>
+      <c r="G35" s="13">
+        <v>400</v>
+      </c>
+      <c r="H35" s="13">
+        <v>500</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
+        <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" ref="B36:H36" si="2">SUM(-B34,B35)</f>
+        <v>-210</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="2"/>
+        <v>-6973</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="2"/>
+        <v>-1253</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="2"/>
+        <v>-161</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="2"/>
+        <v>-969</v>
+      </c>
+      <c r="J36" s="15">
+        <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
+        <v>-7666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -20242,7 +21063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -21010,7 +21831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -21742,7 +22563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -22437,7 +23258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -23154,7 +23975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -24155,7 +24976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -24950,7 +25771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -25577,10 +26398,592 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>349</v>
+      </c>
+      <c r="E2">
+        <v>379</v>
+      </c>
+      <c r="G2">
+        <v>15000</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
+        <v>15888</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="5">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>695</v>
+      </c>
+      <c r="D3">
+        <v>218</v>
+      </c>
+      <c r="G3">
+        <v>177</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>340</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2667</v>
+      </c>
+      <c r="D6">
+        <v>166</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>2833</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <f>SUM(L2:L7)</f>
+        <v>30000</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
+        <f>SUM(N2:N7)</f>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
+        <f>SUM(L17:L30)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <f>SUM(B2:B32)</f>
+        <v>300</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(C2:C32)</f>
+        <v>3862</v>
+      </c>
+      <c r="D34" s="9">
+        <f>SUM(D2:D32)</f>
+        <v>858</v>
+      </c>
+      <c r="E34" s="9">
+        <f>SUM(E2:E32)</f>
+        <v>579</v>
+      </c>
+      <c r="F34" s="9">
+        <f>SUM(F2:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f>SUM(G2:G32)</f>
+        <v>15517</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
+        <f>SUM(B34,C34,D34,E34,F34,G34)</f>
+        <v>21116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4300</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="13">
+        <v>300</v>
+      </c>
+      <c r="G35" s="13">
+        <f>SUM(L17:L30)</f>
+        <v>22000</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
+        <f>SUM(B35,C35,D35,E35,F35,G35)</f>
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
+        <v>1200</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="1"/>
+        <v>6483</v>
+      </c>
+      <c r="I36" s="15">
+        <f>SUM(B36,C36,D36,E36,F36,G36)</f>
+        <v>8984</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26707,12 +28110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView windowProtection="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27537,7 +28940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -28269,7 +29672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -29039,7 +30442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -29825,7 +31228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -30563,7 +31966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
@@ -31337,824 +32740,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
-  <sheetViews>
-    <sheetView windowProtection="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="19.140625" style="1"/>
-    <col min="3" max="3" width="14.7109375" style="1"/>
-    <col min="4" max="4" width="21.28515625" style="1"/>
-    <col min="5" max="5" width="16.28515625" style="1"/>
-    <col min="6" max="7" width="14.28515625" style="1"/>
-    <col min="8" max="8" width="12.140625" style="1"/>
-    <col min="9" max="9" width="2.42578125"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="12" width="8.5703125"/>
-    <col min="13" max="13" width="15.42578125"/>
-    <col min="14" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>276</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2">
-        <v>260</v>
-      </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
-        <v>557</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3">
-        <v>500</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>818</v>
-      </c>
-      <c r="M3">
-        <v>600</v>
-      </c>
-      <c r="N3">
-        <v>3000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5">
-        <v>178</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="N5">
-        <v>370</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6">
-        <v>2663</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6">
-        <v>172</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>2835</v>
-      </c>
-      <c r="N6">
-        <v>500</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8">
-        <v>500</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8">
-        <v>287</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9">
-        <v>43</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>331</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10">
-        <v>72</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11">
-        <v>3100</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11">
-        <v>118</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13">
-        <v>64</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13">
-        <v>209</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14">
-        <v>610</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15">
-        <v>45</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17">
-        <v>119</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18">
-        <v>129</v>
-      </c>
-      <c r="F18">
-        <v>437</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>566</v>
-      </c>
-      <c r="N18">
-        <v>200</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>350</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22">
-        <v>184</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22">
-        <v>400</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23">
-        <v>300</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="N23">
-        <v>100</v>
-      </c>
-      <c r="O23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>185</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25">
-        <v>72</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26">
-        <v>18</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27">
-        <v>500</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27">
-        <v>48</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28">
-        <v>85</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30">
-        <v>45</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>300</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>73</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32">
-        <v>23</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="9">
-        <f t="shared" ref="B34:H34" si="1">SUM(B2:B32)</f>
-        <v>1710</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="1"/>
-        <v>7973</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="1"/>
-        <v>1953</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="1"/>
-        <v>661</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="1"/>
-        <v>1469</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11">
-        <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
-        <v>13766</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="13">
-        <v>700</v>
-      </c>
-      <c r="F35" s="13">
-        <v>500</v>
-      </c>
-      <c r="G35" s="13">
-        <v>400</v>
-      </c>
-      <c r="H35" s="13">
-        <v>500</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11">
-        <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="15">
-        <f t="shared" ref="B36:H36" si="2">SUM(-B34,B35)</f>
-        <v>-210</v>
-      </c>
-      <c r="C36" s="15">
-        <f t="shared" si="2"/>
-        <v>-6973</v>
-      </c>
-      <c r="D36" s="15">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="2"/>
-        <v>-1253</v>
-      </c>
-      <c r="F36" s="15">
-        <f t="shared" si="2"/>
-        <v>-161</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="2"/>
-        <v>-969</v>
-      </c>
-      <c r="J36" s="15">
-        <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
-        <v>-7666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/DailyExpenditure.xlsx
+++ b/DailyExpenditure.xlsx
@@ -26401,7 +26401,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26566,9 +26566,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>291</v>
+      </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
@@ -26877,7 +26880,7 @@
       </c>
       <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
-        <v>300</v>
+        <v>591</v>
       </c>
       <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
@@ -26902,7 +26905,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>21116</v>
+        <v>21407</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26940,7 +26943,7 @@
       </c>
       <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
-        <v>1200</v>
+        <v>909</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="1"/>
@@ -26964,7 +26967,7 @@
       </c>
       <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
-        <v>8984</v>
+        <v>8693</v>
       </c>
     </row>
   </sheetData>

--- a/DailyExpenditure.xlsx
+++ b/DailyExpenditure.xlsx
@@ -7401,15 +7401,6 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7451,6 +7442,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28947,140 +28947,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
         <v>0</v>
       </c>
@@ -29089,7 +29089,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29098,7 +29098,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29107,7 +29107,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29116,7 +29116,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29125,7 +29125,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29134,7 +29134,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29143,7 +29143,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29152,195 +29152,195 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="I21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
         <v>0</v>
       </c>
@@ -29349,103 +29349,103 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4300</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>300</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <f>SUM(L17:L30)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>8100</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>1500</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>8100</v>
       </c>
@@ -29473,13 +29473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -29488,31 +29488,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
       <c r="H2">
         <v>260</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>557</v>
       </c>
@@ -29561,7 +29561,7 @@
       <c r="H3">
         <v>500</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
@@ -29588,7 +29588,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -29612,7 +29612,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
@@ -29638,7 +29638,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>2835</v>
       </c>
@@ -29662,7 +29662,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -29682,7 +29682,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>787</v>
       </c>
@@ -29700,7 +29700,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -29720,7 +29720,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
@@ -29740,7 +29740,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>3218</v>
       </c>
@@ -29758,7 +29758,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -29778,7 +29778,7 @@
       <c r="H13">
         <v>209</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
@@ -29800,7 +29800,7 @@
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -29818,7 +29818,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -29836,7 +29836,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -29854,7 +29854,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -29874,7 +29874,7 @@
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>566</v>
       </c>
@@ -29898,7 +29898,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -29918,7 +29918,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
@@ -29936,7 +29936,7 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -29956,7 +29956,7 @@
       <c r="H22">
         <v>400</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>584</v>
       </c>
@@ -29976,7 +29976,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -30002,7 +30002,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
@@ -30022,7 +30022,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -30042,7 +30042,7 @@
       <c r="H26">
         <v>100</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -30062,7 +30062,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
@@ -30080,7 +30080,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -30098,7 +30098,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -30116,7 +30116,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -30134,7 +30134,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -30154,113 +30154,113 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:H34" si="1">SUM(B2:B32)</f>
         <v>1710</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>7973</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1953</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>661</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f t="shared" si="1"/>
         <v>1469</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>13766</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1500</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>500</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>400</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6100</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="2">SUM(-B34,B35)</f>
         <v>-210</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>-6973</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-1253</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-161</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="2"/>
         <v>-969</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-7666</v>
       </c>
@@ -30283,13 +30283,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -30298,34 +30298,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -30346,11 +30346,11 @@
       <c r="H2">
         <v>1014</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="23">
         <v>1152</v>
       </c>
     </row>
@@ -30373,11 +30373,11 @@
       <c r="H3">
         <v>1010</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="23">
         <v>1994</v>
       </c>
     </row>
@@ -30396,11 +30396,11 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -30419,11 +30419,11 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <f>SUM(M2:M4)</f>
         <v>3146</v>
       </c>
@@ -30445,7 +30445,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>2999</v>
       </c>
@@ -30465,7 +30465,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -30486,7 +30486,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
@@ -30508,11 +30508,11 @@
       <c r="H9">
         <v>15</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>928</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="27">
         <v>463</v>
       </c>
     </row>
@@ -30533,11 +30533,11 @@
       <c r="H10">
         <v>260</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="27">
         <v>165</v>
       </c>
     </row>
@@ -30556,11 +30556,11 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <v>780</v>
       </c>
     </row>
@@ -30579,11 +30579,11 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -30600,11 +30600,11 @@
       <c r="H13">
         <v>1100</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -30619,11 +30619,11 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="30"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -30642,11 +30642,11 @@
       <c r="H15">
         <v>1000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -30663,11 +30663,11 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -30684,11 +30684,11 @@
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -30703,11 +30703,11 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -30724,11 +30724,11 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>611</v>
       </c>
-      <c r="N19" s="30"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -30745,11 +30745,11 @@
       <c r="H20">
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="N20" s="30"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -30766,11 +30766,11 @@
       <c r="H21">
         <v>150</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="N21" s="30"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -30785,11 +30785,11 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="N22" s="30"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -30804,11 +30804,11 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="30"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -30827,11 +30827,11 @@
       <c r="H24">
         <v>88</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -30848,11 +30848,11 @@
       </c>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="N25" s="30"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -30867,11 +30867,11 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="N26" s="30"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -30890,11 +30890,11 @@
         <v>375</v>
       </c>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="N27" s="30"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -30909,11 +30909,11 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="N28" s="30"/>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -30928,11 +30928,11 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="N29" s="30"/>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -30951,11 +30951,11 @@
       <c r="H30">
         <v>83</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="N30" s="30"/>
+      <c r="N30" s="27"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -30970,11 +30970,11 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N31" s="30"/>
+      <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -30987,11 +30987,11 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="30"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -31002,113 +31002,113 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>2458</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>3341</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>4770</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15236</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3667</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>6467</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-1458</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-2641</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-950</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-4270</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-8769</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="23">
         <f>SUM(N9:N35)</f>
         <v>1408</v>
       </c>
@@ -31131,44 +31131,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31191,7 +31191,7 @@
       <c r="H2">
         <v>694</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -31206,7 +31206,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J11" si="0">SUM(B3,C3,D3,E3,F3,H3)</f>
         <v>56</v>
       </c>
@@ -31224,7 +31224,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
@@ -31242,7 +31242,7 @@
       <c r="H5">
         <v>170</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -31264,7 +31264,7 @@
       <c r="H6">
         <v>1620</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>1656</v>
       </c>
@@ -31288,7 +31288,7 @@
       <c r="H7">
         <v>12</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>2738</v>
       </c>
@@ -31310,7 +31310,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>902</v>
       </c>
@@ -31330,7 +31330,7 @@
       <c r="H9">
         <v>235</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
@@ -31350,7 +31350,7 @@
       <c r="H10">
         <v>1400</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>1468</v>
       </c>
@@ -31370,7 +31370,7 @@
       <c r="H11">
         <v>899</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>100</v>
       </c>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f>SUM(B12,C12,D12,E12,F12,G12,H12)</f>
         <v>175</v>
       </c>
@@ -31408,7 +31408,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" ref="J13:J32" si="1">SUM(B13,C13,D13,E13,F13,H13)</f>
         <v>30</v>
       </c>
@@ -31428,7 +31428,7 @@
       <c r="H14">
         <v>160</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
@@ -31444,7 +31444,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31460,7 +31460,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31478,7 +31478,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -31496,7 +31496,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
@@ -31514,7 +31514,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -31532,7 +31532,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -31554,7 +31554,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
@@ -31572,7 +31572,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -31590,7 +31590,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -31608,7 +31608,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -31624,7 +31624,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31642,7 +31642,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
@@ -31664,7 +31664,7 @@
       <c r="H27">
         <v>103</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
@@ -31682,7 +31682,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
@@ -31700,7 +31700,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -31720,7 +31720,7 @@
       <c r="H30">
         <v>225</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -31740,7 +31740,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -31762,11 +31762,11 @@
       <c r="H32">
         <v>50</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31781,102 +31781,102 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1451</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3663</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>10</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1781</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>17</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G33)</f>
         <v>729</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5568</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,H34)</f>
         <v>12490</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>700</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,H35)</f>
         <v>3150</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f>SUM(-B34,B35)</f>
         <v>-451</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f>SUM(-C34,C35)</f>
         <v>-2963</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f>SUM(-D34,D35)</f>
         <v>190</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f>SUM(-E34,E35)</f>
         <v>-1081</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f>SUM(-F34,F35)</f>
         <v>33</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18">
+      <c r="G36" s="15"/>
+      <c r="H36" s="15">
         <f>SUM(-H34,H35)</f>
         <v>-5068</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,H36)</f>
         <v>-9340</v>
       </c>
@@ -31899,41 +31899,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31953,7 +31953,7 @@
       <c r="G2">
         <v>250</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>325</v>
       </c>
@@ -31972,7 +31972,7 @@
       <c r="G3">
         <v>477</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
@@ -31991,7 +31991,7 @@
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -32008,7 +32008,7 @@
       <c r="G5">
         <v>1108</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>1108</v>
       </c>
@@ -32023,7 +32023,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32046,7 +32046,7 @@
       <c r="G7">
         <v>200</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>3495</v>
       </c>
@@ -32066,7 +32066,7 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -32087,7 +32087,7 @@
       <c r="G9">
         <v>346.14</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>599.14</v>
       </c>
@@ -32104,7 +32104,7 @@
       <c r="G10">
         <v>2360</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>2360</v>
       </c>
@@ -32121,7 +32121,7 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -32142,7 +32142,7 @@
       <c r="G12">
         <v>1699</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>2136</v>
       </c>
@@ -32161,7 +32161,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
@@ -32180,7 +32180,7 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
@@ -32199,7 +32199,7 @@
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -32216,7 +32216,7 @@
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -32233,7 +32233,7 @@
       </c>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>140</v>
       </c>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
@@ -32275,7 +32275,7 @@
       <c r="G19">
         <v>80</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
@@ -32292,7 +32292,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -32311,7 +32311,7 @@
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
@@ -32332,7 +32332,7 @@
       <c r="G22">
         <v>249</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
@@ -32349,7 +32349,7 @@
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
@@ -32368,7 +32368,7 @@
         <v>135</v>
       </c>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
@@ -32385,7 +32385,7 @@
       <c r="G25">
         <v>259</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
@@ -32402,7 +32402,7 @@
       <c r="G26">
         <v>478</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
@@ -32417,7 +32417,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32442,7 +32442,7 @@
       <c r="G28">
         <v>108</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
@@ -32459,7 +32459,7 @@
       <c r="G29">
         <v>22</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -32474,7 +32474,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32489,7 +32489,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32504,102 +32504,102 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>1156</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>3663</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>2215</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>7746.1399999999994</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15435.14</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3663</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>500</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>2585</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>7998</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="2">SUM(-B34,B35)</f>
         <v>-156</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>-150</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-1715</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-255</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>-5161.1399999999994</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-7437.1399999999994</v>
       </c>
@@ -32622,41 +32622,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32670,7 +32670,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>0</v>
       </c>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -32704,7 +32704,7 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -32723,7 +32723,7 @@
       <c r="G5">
         <v>300</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
@@ -32742,7 +32742,7 @@
       <c r="G6">
         <v>304</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>899</v>
       </c>
@@ -32759,7 +32759,7 @@
       <c r="G7">
         <v>360</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -32774,7 +32774,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32793,7 +32793,7 @@
       <c r="G9">
         <v>960</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>978</v>
       </c>
@@ -32812,7 +32812,7 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
@@ -32829,7 +32829,7 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -32846,7 +32846,7 @@
       </c>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -32863,7 +32863,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -32878,7 +32878,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32893,7 +32893,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32908,7 +32908,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>335</v>
       </c>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>393</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -32963,7 +32963,7 @@
         <v>1003</v>
       </c>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
@@ -32980,7 +32980,7 @@
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -32995,7 +32995,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33014,7 +33014,7 @@
       <c r="G22">
         <v>1300</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>1310</v>
       </c>
@@ -33031,7 +33031,7 @@
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -33052,7 +33052,7 @@
       <c r="G24">
         <v>566</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>1246</v>
       </c>
@@ -33069,7 +33069,7 @@
       </c>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -33086,7 +33086,7 @@
       </c>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -33103,7 +33103,7 @@
       <c r="G27">
         <v>112</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -33120,7 +33120,7 @@
       <c r="G28">
         <v>200</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -33137,7 +33137,7 @@
       <c r="G29">
         <v>600</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -33154,7 +33154,7 @@
       <c r="G30">
         <v>328</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
@@ -33171,7 +33171,7 @@
       <c r="G31">
         <v>105</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -33190,102 +33190,102 @@
       <c r="G32">
         <v>150</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1732</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>1338</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>5305</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>9375</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>700</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>1500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>4450</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="2">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="2"/>
         <v>-300</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>-732</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>-1288</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>-3805</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-4925</v>
       </c>
@@ -33309,41 +33309,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -33363,7 +33363,7 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>735</v>
       </c>
@@ -33383,7 +33383,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -33402,7 +33402,7 @@
       <c r="G4">
         <v>210</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>382</v>
       </c>
@@ -33421,7 +33421,7 @@
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -33438,7 +33438,7 @@
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -33457,7 +33457,7 @@
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
@@ -33493,7 +33493,7 @@
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -33513,7 +33513,7 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -33536,7 +33536,7 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
@@ -33555,7 +33555,7 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
@@ -33591,7 +33591,7 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -33608,7 +33608,7 @@
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -33629,7 +33629,7 @@
       <c r="G16">
         <v>102</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
@@ -33644,7 +33644,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33659,7 +33659,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33674,7 +33674,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33691,7 +33691,7 @@
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -33710,7 +33710,7 @@
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
@@ -33729,7 +33729,7 @@
       <c r="G22">
         <v>185</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -33744,7 +33744,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33763,7 +33763,7 @@
       <c r="G24">
         <v>200</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
@@ -33778,7 +33778,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33793,7 +33793,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33810,7 +33810,7 @@
       </c>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -33827,7 +33827,7 @@
       </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -33844,7 +33844,7 @@
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -33863,7 +33863,7 @@
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
@@ -33880,7 +33880,7 @@
       </c>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -33895,69 +33895,69 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>794</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>1297</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>762</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4867</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>750</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>500</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3800</v>
       </c>
@@ -33966,34 +33966,34 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f>SUM(-B34,B35)</f>
         <v>206</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f>SUM(-C34,C35)</f>
         <v>-500</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f>SUM(-D34,D35)</f>
         <v>236</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f>SUM(-E34,1000)</f>
         <v>-297</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f>SUM(-F34,F35)</f>
         <v>50</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f>SUM(-G34,G35)</f>
         <v>-262</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-567</v>
       </c>
@@ -34017,13 +34017,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="4"/>
-    <col min="2" max="2" width="19.85546875" style="4"/>
-    <col min="3" max="3" width="15.42578125" style="4"/>
-    <col min="4" max="4" width="14" style="4"/>
-    <col min="5" max="5" width="15" style="4"/>
-    <col min="6" max="6" width="12.140625" style="4"/>
-    <col min="7" max="7" width="15" style="4"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1"/>
+    <col min="4" max="4" width="14" style="1"/>
+    <col min="5" max="5" width="15" style="1"/>
+    <col min="6" max="6" width="12.140625" style="1"/>
+    <col min="7" max="7" width="15" style="1"/>
     <col min="8" max="8" width="2.140625"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="10" width="8.5703125"/>
@@ -34032,28 +34032,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -34079,7 +34079,7 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>652</v>
       </c>
@@ -34106,7 +34106,7 @@
       <c r="G3">
         <v>110</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -34133,7 +34133,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -34160,7 +34160,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -34187,7 +34187,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -34214,11 +34214,11 @@
       <c r="G7">
         <v>36</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -34244,7 +34244,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -34274,7 +34274,7 @@
       <c r="G9">
         <v>344</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
@@ -34304,7 +34304,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -34331,7 +34331,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -34358,7 +34358,7 @@
       <c r="G12">
         <v>150</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -34388,7 +34388,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34418,7 +34418,7 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -34448,7 +34448,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
@@ -34478,7 +34478,7 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -34505,7 +34505,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -34532,7 +34532,7 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
@@ -34559,7 +34559,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -34586,7 +34586,7 @@
       <c r="G20">
         <v>135</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -34613,7 +34613,7 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
@@ -34640,7 +34640,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="11">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -34667,7 +34667,7 @@
       <c r="G23">
         <v>400</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="11">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
@@ -34694,7 +34694,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -34721,7 +34721,7 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -34748,7 +34748,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -34775,7 +34775,7 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -34802,7 +34802,7 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -34829,7 +34829,7 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -34856,7 +34856,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="11">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
@@ -34883,7 +34883,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -34913,7 +34913,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34926,38 +34926,38 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:G34" si="1">SUM(B2:B32)</f>
         <v>1365</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>859</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f t="shared" si="1"/>
         <v>1275</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>4509</v>
       </c>
@@ -34967,34 +34967,34 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="15">
         <f>SUM(-B34,1500)</f>
         <v>135</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <f>SUM(-C34,1000)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <f>SUM(-D34,200)</f>
         <v>200</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <f>SUM(-E34,500)</f>
         <v>-359</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <f>SUM(-F34,100)</f>
         <v>90</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <f>SUM(-G34,1400)</f>
         <v>125</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>191</v>
       </c>
@@ -35018,35 +35018,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12" style="4"/>
-    <col min="3" max="3" width="17.140625" style="4"/>
-    <col min="4" max="4" width="17.7109375" style="4"/>
-    <col min="5" max="5" width="9.85546875" style="4"/>
-    <col min="6" max="6" width="11" style="4"/>
-    <col min="7" max="7" width="10.7109375" style="4"/>
+    <col min="1" max="2" width="12" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1"/>
+    <col min="4" max="4" width="17.7109375" style="1"/>
+    <col min="5" max="5" width="9.85546875" style="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="10.7109375" style="1"/>
     <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -35761,35 +35761,35 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="17">
         <f t="shared" ref="B33:G33" si="0">SUM(B2:B32)</f>
         <v>1905</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="17">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>904</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="17">
         <f t="shared" si="0"/>
         <v>1282</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="29">
         <f>SUM(B33,C33,D33,E33,F33,G33)</f>
         <v>6454</v>
       </c>
@@ -35813,12 +35813,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -35827,28 +35827,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -35862,7 +35862,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>0</v>
       </c>
@@ -35877,7 +35877,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35892,7 +35892,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35907,7 +35907,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35922,7 +35922,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35937,7 +35937,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35952,7 +35952,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35967,7 +35967,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35982,7 +35982,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35997,7 +35997,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36012,7 +36012,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36027,7 +36027,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36042,7 +36042,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36057,7 +36057,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36072,7 +36072,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36087,7 +36087,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36102,7 +36102,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36117,7 +36117,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36132,7 +36132,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36147,7 +36147,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36162,7 +36162,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36177,7 +36177,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36192,7 +36192,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36207,7 +36207,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36222,7 +36222,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36237,7 +36237,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36252,7 +36252,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36267,7 +36267,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36282,7 +36282,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36297,7 +36297,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36312,102 +36312,102 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>1000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>6600</v>
       </c>
@@ -36423,13 +36423,13 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125"/>
@@ -36444,38 +36444,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -36493,18 +36493,18 @@
       <c r="G2">
         <v>15000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>15888</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>30000</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5">
         <v>38000</v>
       </c>
     </row>
@@ -36521,16 +36521,16 @@
       <c r="G3">
         <v>177</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>1090</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -36545,16 +36545,16 @@
       <c r="G4">
         <v>340</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -36569,16 +36569,16 @@
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>795</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -36590,14 +36590,14 @@
       <c r="D6">
         <v>166</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2833</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -36606,14 +36606,14 @@
       <c r="B7">
         <v>291</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -36631,17 +36631,17 @@
       <c r="G8">
         <v>700</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>1231</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
         <v>30000</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
         <v>38000</v>
       </c>
@@ -36653,7 +36653,7 @@
       <c r="D9">
         <v>75</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -36668,7 +36668,7 @@
       <c r="G10">
         <v>380</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>437</v>
       </c>
@@ -36677,7 +36677,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36689,7 +36689,7 @@
       <c r="E12">
         <v>138</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
@@ -36704,7 +36704,7 @@
       <c r="E13">
         <v>272</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
@@ -36719,7 +36719,7 @@
       <c r="G14">
         <v>5000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>5272</v>
       </c>
@@ -36728,36 +36728,39 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>15000</v>
       </c>
     </row>
@@ -36765,40 +36768,40 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>4000</v>
       </c>
     </row>
@@ -36806,25 +36809,25 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="I21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>2000</v>
       </c>
     </row>
@@ -36832,14 +36835,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -36847,93 +36850,93 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
         <v>22000</v>
       </c>
@@ -36942,105 +36945,105 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>668</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3862</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
-        <v>1455</v>
-      </c>
-      <c r="E34" s="12">
+        <v>1525</v>
+      </c>
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1335</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>21597</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
-        <v>28917</v>
+        <v>28987</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4300</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>300</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <f>SUM(L17:L30)</f>
         <v>22000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>30100</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>832</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>438</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
-        <v>-455</v>
-      </c>
-      <c r="E36" s="18">
+        <v>-525</v>
+      </c>
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-335</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
-        <v>1183</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -37066,12 +37069,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="5.85546875"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="10" width="8.5703125"/>
@@ -37083,39 +37086,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -37129,28 +37132,28 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>105</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>1154</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="U2" s="20" t="s">
+      <c r="S2" s="32"/>
+      <c r="U2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -37170,30 +37173,30 @@
       <c r="G3">
         <v>50</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>160</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <v>2000</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="U3" s="10"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -37209,28 +37212,28 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>4000</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <v>5000</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="U4" s="10"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -37244,28 +37247,28 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>15800</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <v>5000</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="U5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -37285,22 +37288,22 @@
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2883</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18">
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15">
         <v>10</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="U6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -37316,22 +37319,22 @@
       <c r="G7">
         <v>500</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>662</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18">
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
         <v>15</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="U7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -37349,26 +37352,26 @@
       <c r="G8">
         <v>370</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
         <v>21114</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="5">
         <f>SUM(N2:N7)</f>
         <v>12000</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="U8" s="10">
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="U8" s="7">
         <v>270</v>
       </c>
     </row>
@@ -37388,15 +37391,15 @@
       <c r="G9">
         <v>100</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="U9" s="10"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -37412,15 +37415,15 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="U10" s="10">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="U10" s="7">
         <v>274</v>
       </c>
     </row>
@@ -37436,15 +37439,15 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="U11" s="10">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="U11" s="7">
         <v>344</v>
       </c>
     </row>
@@ -37466,15 +37469,15 @@
       <c r="G12">
         <v>1423</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="U12" s="10">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="U12" s="7">
         <v>1423</v>
       </c>
     </row>
@@ -37490,15 +37493,15 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="U13" s="10"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -37516,15 +37519,15 @@
       <c r="G14">
         <v>732</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>836</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="U14" s="10"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -37538,15 +37541,15 @@
         <v>125</v>
       </c>
       <c r="G15"/>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="U15" s="10"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -37566,21 +37569,21 @@
       <c r="G16">
         <v>100</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>959</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="U16" s="10">
+      <c r="L16" s="31"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="16"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="U16" s="7">
         <v>438</v>
       </c>
     </row>
@@ -37600,23 +37603,23 @@
       <c r="G17">
         <v>3750</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>4209</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>6000</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="19"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="U17" s="10">
+      <c r="M17" s="18"/>
+      <c r="N17" s="16"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="U17" s="7">
         <v>290</v>
       </c>
     </row>
@@ -37632,25 +37635,25 @@
       <c r="G18">
         <v>1294</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>1294</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="7">
         <v>700</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>600</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="U18" s="10"/>
+      <c r="N18" s="16"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -37666,25 +37669,25 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="7">
         <v>300</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>50</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="U19" s="10">
+      <c r="N19" s="16"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="U19" s="7">
         <v>637</v>
       </c>
     </row>
@@ -37700,23 +37703,23 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>500</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="19"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="U20" s="10"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="16"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -37734,19 +37737,19 @@
       <c r="G21">
         <v>120</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="19"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="U21" s="10"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="16"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -37760,23 +37763,23 @@
       <c r="G22">
         <v>230</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>600</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="U22" s="10"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -37790,23 +37793,23 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>1000</v>
       </c>
-      <c r="M23" s="21"/>
-      <c r="N23" s="19"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="U23" s="10"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -37820,25 +37823,25 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>700</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>732</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="U24" s="10">
+      <c r="N24" s="16"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="7">
         <v>42</v>
       </c>
     </row>
@@ -37854,25 +37857,25 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="7">
         <v>1500</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>1423</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="U25" s="10">
+      <c r="N25" s="16"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="U25" s="7">
         <v>300</v>
       </c>
     </row>
@@ -37888,19 +37891,19 @@
       </c>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="19"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="U26" s="10"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="16"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -37916,19 +37919,19 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="U27" s="10"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -37942,19 +37945,19 @@
       <c r="G28">
         <v>100</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="19"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="U28" s="10"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="16"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -37966,19 +37969,19 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="19"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="U29" s="10"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="16"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -37990,19 +37993,19 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="19"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="U30" s="10"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="16"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -38014,25 +38017,25 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7">
         <f>SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="18">
         <f>SUM(M17:M30)</f>
         <v>2805</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="U31" s="10"/>
+      <c r="N31" s="16"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -38044,122 +38047,122 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="U32" s="10"/>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="34" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="20">
         <f>SUM(B2:B32)</f>
         <v>3208</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <f>SUM(C2:C32)</f>
         <v>3363</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <f>SUM(D2:D32)</f>
         <v>1477</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="20">
         <f>SUM(E2:E32)</f>
         <v>506</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="20">
         <f>SUM(F2:F33)</f>
         <v>524</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
         <v>8829</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25">
+      <c r="H34" s="21"/>
+      <c r="I34" s="22">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17907</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="23">
         <f>SUM(P3:P33)</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26">
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23">
         <f>SUM(R3:R32)</f>
         <v>15</v>
       </c>
-      <c r="S34" s="26"/>
+      <c r="S34" s="23"/>
       <c r="U34">
         <f>SUM(U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32)</f>
         <v>4018</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="25">
         <v>3000</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>3800</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="25">
         <v>1500</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="25">
         <v>1050</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>400</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="25">
         <f>SUM(L17:L30)</f>
         <v>11300</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>21050</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-208</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-124</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>2471</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>3143</v>
       </c>
@@ -38189,12 +38192,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -38203,28 +38206,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38240,7 +38243,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>30</v>
       </c>
@@ -38257,7 +38260,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -38274,7 +38277,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -38295,7 +38298,7 @@
       <c r="G5">
         <v>310</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
@@ -38314,7 +38317,7 @@
       <c r="G6">
         <v>140</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
@@ -38333,7 +38336,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -38354,7 +38357,7 @@
       <c r="G8">
         <v>150</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
@@ -38375,7 +38378,7 @@
       <c r="G9">
         <v>200</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>2938</v>
       </c>
@@ -38396,7 +38399,7 @@
       <c r="G10">
         <v>6000</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>6273</v>
       </c>
@@ -38413,7 +38416,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -38440,7 +38443,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -38465,7 +38468,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -38488,7 +38491,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -38513,7 +38516,7 @@
       <c r="G15">
         <v>390</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -38530,7 +38533,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -38549,7 +38552,7 @@
       </c>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
@@ -38566,7 +38569,7 @@
       </c>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -38583,7 +38586,7 @@
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
@@ -38600,7 +38603,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -38621,7 +38624,7 @@
       <c r="G21">
         <v>150</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
@@ -38638,14 +38641,14 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="26" t="s">
         <v>37</v>
       </c>
       <c r="Q22" t="s">
@@ -38667,12 +38670,12 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -38686,14 +38689,14 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="26">
         <v>5</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="26">
         <v>10</v>
       </c>
     </row>
@@ -38709,14 +38712,14 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="26">
         <v>25</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="26">
         <v>10</v>
       </c>
     </row>
@@ -38734,12 +38737,12 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -38757,12 +38760,12 @@
       <c r="G27">
         <v>100</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -38778,12 +38781,12 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -38797,14 +38800,14 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="26">
         <v>10</v>
       </c>
-      <c r="P29" s="29">
+      <c r="P29" s="26">
         <v>10</v>
       </c>
     </row>
@@ -38822,12 +38825,12 @@
       <c r="G30">
         <v>260</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
         <v>110</v>
       </c>
       <c r="Q30">
@@ -38846,12 +38849,12 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29">
+      <c r="O31" s="26"/>
+      <c r="P31" s="26">
         <v>10</v>
       </c>
       <c r="R31">
@@ -38868,12 +38871,12 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -38883,47 +38886,47 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>848</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>4008</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>1919</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>790</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>7700</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>15265</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="26">
         <f>SUM(O24:O33)</f>
         <v>40</v>
       </c>
-      <c r="P34" s="29">
+      <c r="P34" s="26">
         <f>SUM(P23:P33)</f>
         <v>150</v>
       </c>
@@ -38937,69 +38940,69 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1500</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3800</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>1000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>1050</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>8300</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>16000</v>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>652</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>-208</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-919</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>735</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -39019,12 +39022,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.28515625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -39033,28 +39036,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39070,7 +39073,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>140</v>
       </c>
@@ -39089,7 +39092,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
@@ -39108,7 +39111,7 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
@@ -39127,7 +39130,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
@@ -39146,7 +39149,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2777</v>
       </c>
@@ -39167,7 +39170,7 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -39188,7 +39191,7 @@
       <c r="G8">
         <v>550</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>1591</v>
       </c>
@@ -39209,7 +39212,7 @@
       <c r="G9">
         <v>12000</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>12317</v>
       </c>
@@ -39230,7 +39233,7 @@
       <c r="G10">
         <v>2650</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>2740</v>
       </c>
@@ -39249,7 +39252,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -39268,7 +39271,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -39285,7 +39288,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -39304,7 +39307,7 @@
       <c r="G14">
         <v>8000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>8010</v>
       </c>
@@ -39325,7 +39328,7 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
@@ -39342,7 +39345,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -39359,7 +39362,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -39376,7 +39379,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -39393,7 +39396,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -39412,7 +39415,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
@@ -39429,7 +39432,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -39446,7 +39449,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -39465,7 +39468,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -39484,7 +39487,7 @@
       <c r="G24">
         <v>20</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -39503,7 +39506,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
@@ -39520,7 +39523,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -39539,7 +39542,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
@@ -39556,7 +39559,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -39571,7 +39574,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39590,7 +39593,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -39607,7 +39610,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -39624,102 +39627,102 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1653</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>3667</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>1978</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>162</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>23360</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>30820</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>6600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-653</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-1278</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-112</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-22860</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-24220</v>
       </c>
@@ -39742,12 +39745,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="16.28515625" style="4"/>
-    <col min="5" max="6" width="14.28515625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="6" width="14.28515625" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1"/>
     <col min="8" max="8" width="2.42578125"/>
     <col min="9" max="9" width="12.7109375"/>
     <col min="10" max="11" width="8.5703125"/>
@@ -39756,28 +39759,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39801,7 +39804,7 @@
       <c r="G2">
         <v>1067</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I32" si="0">SUM(B2,C2,D2,E2,F2,G2)</f>
         <v>3585</v>
       </c>
@@ -39820,7 +39823,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
@@ -39839,7 +39842,7 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
@@ -39856,7 +39859,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -39881,7 +39884,7 @@
       <c r="G6">
         <v>20</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>3074</v>
       </c>
@@ -39902,7 +39905,7 @@
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
@@ -39921,7 +39924,7 @@
         <v>440</v>
       </c>
       <c r="G8"/>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>489</v>
       </c>
@@ -39938,7 +39941,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -39961,7 +39964,7 @@
       <c r="G10">
         <v>702</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
@@ -39980,7 +39983,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
@@ -39997,7 +40000,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -40014,7 +40017,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -40031,7 +40034,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -40052,7 +40055,7 @@
       <c r="G15">
         <v>100</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
@@ -40071,7 +40074,7 @@
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -40090,7 +40093,7 @@
       <c r="G17">
         <v>100</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -40109,7 +40112,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
@@ -40130,7 +40133,7 @@
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -40151,7 +40154,7 @@
       <c r="G20">
         <v>300</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>383</v>
       </c>
@@ -40170,7 +40173,7 @@
       <c r="G21">
         <v>1500</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
@@ -40194,7 +40197,7 @@
       <c r="G22">
         <v>10</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -40213,7 +40216,7 @@
       <c r="G23">
         <v>446</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
@@ -40241,7 +40244,7 @@
         <v>40</v>
       </c>
       <c r="G24"/>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>1277</v>
       </c>
@@ -40262,7 +40265,7 @@
       <c r="G25">
         <v>180</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
@@ -40279,7 +40282,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -40298,7 +40301,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
@@ -40317,7 +40320,7 @@
       </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -40334,7 +40337,7 @@
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -40353,7 +40356,7 @@
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -40370,7 +40373,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
@@ -40385,102 +40388,102 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>2865</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>6289</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>2319</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>679</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F33)</f>
         <v>480</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(G2:G32)</f>
         <v>4425</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34)</f>
         <v>17057</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>700</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>50</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>350</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>500</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35)</f>
         <v>3600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:G36" si="1">SUM(-B34,B35)</f>
         <v>-1865</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>-5289</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>-1619</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-629</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-130</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-3925</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36)</f>
         <v>-13457</v>
       </c>
@@ -40503,13 +40506,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -40518,31 +40521,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
@@ -40564,7 +40567,7 @@
       <c r="H2">
         <v>270</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>370</v>
       </c>
@@ -40586,7 +40589,7 @@
       <c r="H3">
         <v>200</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -40604,7 +40607,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -40624,7 +40627,7 @@
       <c r="H5">
         <v>270</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -40646,7 +40649,7 @@
       <c r="H6">
         <v>10000</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
@@ -40669,7 +40672,7 @@
       <c r="H7">
         <v>33</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -40687,7 +40690,7 @@
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -40709,7 +40712,7 @@
       </c>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -40729,7 +40732,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
@@ -40749,7 +40752,7 @@
       </c>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -40771,7 +40774,7 @@
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
@@ -40791,7 +40794,7 @@
       <c r="H13">
         <v>565</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
@@ -40809,7 +40812,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
@@ -40831,7 +40834,7 @@
       <c r="H15">
         <v>750</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -40849,7 +40852,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -40867,7 +40870,7 @@
       <c r="H17">
         <v>100</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -40885,7 +40888,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -40905,7 +40908,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
@@ -40925,7 +40928,7 @@
       <c r="H20">
         <v>945</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>1595</v>
       </c>
@@ -40943,7 +40946,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
@@ -40963,7 +40966,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -40981,7 +40984,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -41003,7 +41006,7 @@
       <c r="H24">
         <v>150</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>458</v>
       </c>
@@ -41021,7 +41024,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -41039,7 +41042,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -41055,7 +41058,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41071,7 +41074,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41089,7 +41092,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -41107,7 +41110,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -41125,7 +41128,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -41143,76 +41146,76 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1206</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>700</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>40</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>2009</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>161</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(A34:F34)</f>
         <v>4116</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>13383</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>21615</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
@@ -41221,38 +41224,38 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-206</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-1309</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-111</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-3766</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-12883</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-17815</v>
       </c>
@@ -41279,13 +41282,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -41294,31 +41297,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41337,7 +41340,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>241</v>
       </c>
@@ -41357,7 +41360,7 @@
       <c r="H3">
         <v>210</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
@@ -41375,7 +41378,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -41395,7 +41398,7 @@
       <c r="H5">
         <v>500</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
@@ -41415,7 +41418,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
@@ -41433,7 +41436,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -41457,7 +41460,7 @@
       <c r="H8">
         <v>341</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>1092</v>
       </c>
@@ -41475,7 +41478,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -41491,7 +41494,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41507,7 +41510,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41525,7 +41528,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
@@ -41545,7 +41548,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -41563,7 +41566,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -41583,7 +41586,7 @@
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -41601,7 +41604,7 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
@@ -41619,7 +41622,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -41637,7 +41640,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -41655,7 +41658,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -41673,7 +41676,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -41691,7 +41694,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
@@ -41711,7 +41714,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -41731,7 +41734,7 @@
       <c r="H23">
         <v>4100</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -41751,7 +41754,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
@@ -41769,7 +41772,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -41785,7 +41788,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41801,7 +41804,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41817,7 +41820,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41833,7 +41836,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41849,7 +41852,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41865,7 +41868,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41881,110 +41884,110 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1326</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1924</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>422</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5151</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>9823</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-326</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-1224</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-372</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-4651</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-6023</v>
       </c>
@@ -42007,13 +42010,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4"/>
-    <col min="3" max="3" width="14.7109375" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="7" width="14.28515625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1"/>
+    <col min="6" max="7" width="14.28515625" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
     <col min="9" max="9" width="2.42578125"/>
     <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="12" width="8.5703125"/>
@@ -42022,31 +42025,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -42063,7 +42066,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J32" si="0">SUM(B2,C2,D2,E2,F2,G2,H2)</f>
         <v>18</v>
       </c>
@@ -42081,7 +42084,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -42097,7 +42100,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42115,7 +42118,7 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -42131,7 +42134,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42151,7 +42154,7 @@
         <v>100</v>
       </c>
       <c r="H7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
@@ -42173,7 +42176,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
@@ -42191,7 +42194,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -42209,7 +42212,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -42229,7 +42232,7 @@
       <c r="H11">
         <v>400</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
@@ -42249,7 +42252,7 @@
       <c r="H12">
         <v>500</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
@@ -42267,7 +42270,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -42287,7 +42290,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
@@ -42307,7 +42310,7 @@
       <c r="H15">
         <v>50</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -42328,7 +42331,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -42351,7 +42354,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
@@ -42369,7 +42372,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -42391,7 +42394,7 @@
       <c r="H19">
         <v>580</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
@@ -42411,7 +42414,7 @@
       <c r="H20">
         <v>180</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
@@ -42431,7 +42434,7 @@
       <c r="H21">
         <v>260</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -42453,7 +42456,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
@@ -42473,7 +42476,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
@@ -42491,7 +42494,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -42513,7 +42516,7 @@
       <c r="H25">
         <v>2149</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>2944</v>
       </c>
@@ -42532,7 +42535,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42552,7 +42555,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
@@ -42570,7 +42573,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -42590,7 +42593,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -42608,7 +42611,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -42628,7 +42631,7 @@
       <c r="H31">
         <v>1500</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>1525</v>
       </c>
@@ -42644,113 +42647,113 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>SUM(B2:B32)</f>
         <v>1269</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>SUM(C2:C32)</f>
         <v>1000</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>SUM(D2:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f>SUM(E2:E32)</f>
         <v>1691</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <f>SUM(F2:F32)</f>
         <v>1000</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>SUM(A34:F34)</f>
         <v>4960</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>SUM(H2:H32)</f>
         <v>5679</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <f>SUM(B34,C34,D34,E34,F34,G34,H34)</f>
         <v>15599</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>1000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>200</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>700</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>50</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>350</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>500</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <f>SUM(B35,C35,D35,E35,F35,G35,H35)</f>
         <v>3800</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <f t="shared" ref="B36:H36" si="1">SUM(-B34,B35)</f>
         <v>-269</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>-991</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <f t="shared" si="1"/>
         <v>-950</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>-4610</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-5179</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>SUM(B36,C36,D36,E36,F36,G36,H36)</f>
         <v>-11799</v>
       </c>
